--- a/Daily Report/Daily Report Sheet/Madhi_dailytask.xlsx
+++ b/Daily Report/Daily Report Sheet/Madhi_dailytask.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="315" windowWidth="19095" windowHeight="7320"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="344">
   <si>
     <t>Completed</t>
   </si>
@@ -901,17 +901,164 @@
   </si>
   <si>
     <t xml:space="preserve">Wellocity Correction </t>
+  </si>
+  <si>
+    <t>Typing Test</t>
+  </si>
+  <si>
+    <t>Xyget retesting</t>
+  </si>
+  <si>
+    <t>1.30PM</t>
+  </si>
+  <si>
+    <t>Wellocity Call with Bala &amp; correction checking</t>
+  </si>
+  <si>
+    <t>Daily Report sheet updation</t>
+  </si>
+  <si>
+    <t>Discuss with Deepak about Task details for resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wellocity Retesting </t>
+  </si>
+  <si>
+    <t>Task assign to Intent</t>
+  </si>
+  <si>
+    <t>Daily Report sheet updation &amp; format send to all</t>
+  </si>
+  <si>
+    <t>Meeting with Sastha about projects status</t>
+  </si>
+  <si>
+    <t>Mail sent to Mr. Shunmuga about thalapakattu status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wellocity testing </t>
+  </si>
+  <si>
+    <t>Preparing tasks for the day</t>
+  </si>
+  <si>
+    <t>Discussion with Kalai &amp; Muthu about Wellocity issues</t>
+  </si>
+  <si>
+    <t>Standup meeting</t>
+  </si>
+  <si>
+    <t>Content Preparation for ETS</t>
+  </si>
+  <si>
+    <t>Mail Sent to Devi mam about Infom atomicka site &amp; zend framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with Deepak, Sastha &amp; HR about Management </t>
+  </si>
+  <si>
+    <t>Daily Report Sheet updation</t>
+  </si>
+  <si>
+    <t>7.20 PM</t>
+  </si>
+  <si>
+    <t>Had call with Cotton house client for appointment</t>
+  </si>
+  <si>
+    <t>Prepared Project tracking sheet</t>
+  </si>
+  <si>
+    <t>7.40 PM</t>
+  </si>
+  <si>
+    <t>13-05-2016</t>
+  </si>
+  <si>
+    <t>Mail checking and replying &amp; task assign</t>
+  </si>
+  <si>
+    <t>Wellocity Correction testing</t>
+  </si>
+  <si>
+    <t>ETS Project Task sheet for Atomicka site in May month</t>
+  </si>
+  <si>
+    <t>5.20 PM</t>
+  </si>
+  <si>
+    <t>Intent task review</t>
+  </si>
+  <si>
+    <t>Discussion with sastha &amp; Deepak</t>
+  </si>
+  <si>
+    <t>17-05-2016</t>
+  </si>
+  <si>
+    <t>Getting Task details with timeline for the team</t>
+  </si>
+  <si>
+    <t>Content correct for ETS Profiles</t>
+  </si>
+  <si>
+    <t>1.25 PM</t>
+  </si>
+  <si>
+    <t>Getting timeline for Intent and Akila devi</t>
+  </si>
+  <si>
+    <t>1.30  PM</t>
+  </si>
+  <si>
+    <t>2.25 PM</t>
+  </si>
+  <si>
+    <t>ETS Profiles content preparation</t>
+  </si>
+  <si>
+    <t>Springloop concept</t>
+  </si>
+  <si>
+    <t>5.10 PM</t>
+  </si>
+  <si>
+    <t>18-05-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team Task details </t>
+  </si>
+  <si>
+    <t>11.25 AM</t>
+  </si>
+  <si>
+    <t>ETS site content preperation</t>
+  </si>
+  <si>
+    <t>Discussion with Sastha about cotton house</t>
+  </si>
+  <si>
+    <t>Single page profile for ETS</t>
+  </si>
+  <si>
+    <t>4.40 PM</t>
+  </si>
+  <si>
+    <t>Preparing mail content for Arun and Vinoth</t>
+  </si>
+  <si>
+    <t>19-05-2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,7 +1107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1354,11 +1501,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1626,14 +1821,35 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1644,32 +1860,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1769,6 +2044,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1803,6 +2079,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1978,15 +2255,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H402"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C253" sqref="C253"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="14" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -1996,7 +2273,7 @@
     <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="94" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:8" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
@@ -2020,7 +2297,7 @@
       </c>
       <c r="H1" s="96"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="92"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -2029,9 +2306,9 @@
       <c r="F2" s="90"/>
       <c r="G2" s="90"/>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="91"/>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="110" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="38" t="s">
@@ -2048,11 +2325,11 @@
       </c>
       <c r="G3" s="85"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>42458</v>
       </c>
-      <c r="B4" s="110"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="34" t="s">
         <v>11</v>
       </c>
@@ -2065,9 +2342,9 @@
       <c r="F4" s="34"/>
       <c r="G4" s="84"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="110"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="34" t="s">
         <v>12</v>
       </c>
@@ -2082,9 +2359,9 @@
       </c>
       <c r="G5" s="84"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="110"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="36" t="s">
         <v>20</v>
       </c>
@@ -2097,9 +2374,9 @@
       <c r="F6" s="34"/>
       <c r="G6" s="84"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="110"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="36" t="s">
         <v>18</v>
       </c>
@@ -2114,9 +2391,9 @@
       </c>
       <c r="G7" s="84"/>
     </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1">
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="111"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="34" t="s">
         <v>16</v>
       </c>
@@ -2127,11 +2404,11 @@
       <c r="F8" s="34"/>
       <c r="G8" s="84"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>42459</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="37" t="s">
@@ -2148,9 +2425,9 @@
       </c>
       <c r="G9" s="85"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="107"/>
+      <c r="B10" s="114"/>
       <c r="C10" s="34" t="s">
         <v>8</v>
       </c>
@@ -2165,9 +2442,9 @@
       </c>
       <c r="G10" s="84"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="107"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="34" t="s">
         <v>26</v>
       </c>
@@ -2182,9 +2459,9 @@
       </c>
       <c r="G11" s="84"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="107"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="34" t="s">
         <v>30</v>
       </c>
@@ -2199,9 +2476,9 @@
       </c>
       <c r="G12" s="84"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="107"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="34" t="s">
         <v>33</v>
       </c>
@@ -2216,20 +2493,20 @@
       </c>
       <c r="G13" s="84"/>
     </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1">
+    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
-      <c r="B14" s="108"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="39"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="39"/>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>42461</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="114" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="37" t="s">
@@ -2246,9 +2523,9 @@
       </c>
       <c r="G15" s="85"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="107"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="37" t="s">
         <v>33</v>
       </c>
@@ -2263,9 +2540,9 @@
       </c>
       <c r="G16" s="84"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
-      <c r="B17" s="107"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="34" t="s">
         <v>37</v>
       </c>
@@ -2278,38 +2555,38 @@
       <c r="F17" s="34"/>
       <c r="G17" s="84"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
-      <c r="B18" s="107"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="34"/>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="34"/>
       <c r="G18" s="84"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="107"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="34"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="34"/>
       <c r="G19" s="84"/>
     </row>
-    <row r="20" spans="1:7" ht="17.25" thickBot="1">
+    <row r="20" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
-      <c r="B20" s="107"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="39"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
       <c r="F20" s="41"/>
       <c r="G20" s="54"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>42462</v>
       </c>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="42" t="s">
@@ -2324,9 +2601,9 @@
       <c r="F21" s="44"/>
       <c r="G21" s="85"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="107"/>
+      <c r="B22" s="114"/>
       <c r="C22" s="42" t="s">
         <v>42</v>
       </c>
@@ -2339,47 +2616,47 @@
       <c r="F22" s="38"/>
       <c r="G22" s="84"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="107"/>
+      <c r="B23" s="114"/>
       <c r="C23" s="34"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="34"/>
       <c r="G23" s="84"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
-      <c r="B24" s="107"/>
+      <c r="B24" s="114"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="34"/>
       <c r="G24" s="84"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="107"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="34"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="34"/>
       <c r="G25" s="84"/>
     </row>
-    <row r="26" spans="1:7" ht="17.25" thickBot="1">
+    <row r="26" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
-      <c r="B26" s="108"/>
+      <c r="B26" s="115"/>
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
       <c r="E26" s="40"/>
       <c r="F26" s="39"/>
       <c r="G26" s="54"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>42464</v>
       </c>
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="42" t="s">
@@ -2396,9 +2673,9 @@
       </c>
       <c r="G27" s="85"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="107"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="34" t="s">
         <v>45</v>
       </c>
@@ -2413,9 +2690,9 @@
       </c>
       <c r="G28" s="84"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="107"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="34" t="s">
         <v>48</v>
       </c>
@@ -2430,9 +2707,9 @@
       </c>
       <c r="G29" s="84"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="107"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="34" t="s">
         <v>42</v>
       </c>
@@ -2447,9 +2724,9 @@
       </c>
       <c r="G30" s="84"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="107"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="34" t="s">
         <v>53</v>
       </c>
@@ -2464,9 +2741,9 @@
       </c>
       <c r="G31" s="84"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
-      <c r="B32" s="107"/>
+      <c r="B32" s="114"/>
       <c r="C32" s="41" t="s">
         <v>55</v>
       </c>
@@ -2481,9 +2758,9 @@
       </c>
       <c r="G32" s="86"/>
     </row>
-    <row r="33" spans="1:7" ht="17.25" thickBot="1">
+    <row r="33" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
-      <c r="B33" s="108"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="39" t="s">
         <v>56</v>
       </c>
@@ -2498,11 +2775,11 @@
       </c>
       <c r="G33" s="54"/>
     </row>
-    <row r="34" spans="1:7" ht="16.5">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>42465</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="37" t="s">
@@ -2519,9 +2796,9 @@
       </c>
       <c r="G34" s="85"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="107"/>
+      <c r="B35" s="114"/>
       <c r="C35" s="34" t="s">
         <v>37</v>
       </c>
@@ -2536,9 +2813,9 @@
       </c>
       <c r="G35" s="84"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="107"/>
+      <c r="B36" s="114"/>
       <c r="C36" s="34" t="s">
         <v>66</v>
       </c>
@@ -2553,9 +2830,9 @@
       </c>
       <c r="G36" s="84"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
-      <c r="B37" s="107"/>
+      <c r="B37" s="114"/>
       <c r="C37" s="34" t="s">
         <v>59</v>
       </c>
@@ -2570,9 +2847,9 @@
       </c>
       <c r="G37" s="84"/>
     </row>
-    <row r="38" spans="1:7" ht="16.5">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="107"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="34" t="s">
         <v>69</v>
       </c>
@@ -2587,9 +2864,9 @@
       </c>
       <c r="G38" s="84"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
-      <c r="B39" s="107"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="41" t="s">
         <v>72</v>
       </c>
@@ -2602,9 +2879,9 @@
       <c r="F39" s="41"/>
       <c r="G39" s="86"/>
     </row>
-    <row r="40" spans="1:7" ht="16.5">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
-      <c r="B40" s="107"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="41" t="s">
         <v>75</v>
       </c>
@@ -2617,20 +2894,20 @@
       <c r="F40" s="41"/>
       <c r="G40" s="86"/>
     </row>
-    <row r="41" spans="1:7" ht="17.25" thickBot="1">
+    <row r="41" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
-      <c r="B41" s="108"/>
+      <c r="B41" s="115"/>
       <c r="C41" s="39"/>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="39"/>
       <c r="G41" s="54"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5">
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>42466</v>
       </c>
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="46" t="s">
@@ -2647,9 +2924,9 @@
       </c>
       <c r="G42" s="85"/>
     </row>
-    <row r="43" spans="1:7" ht="16.5">
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="107"/>
+      <c r="B43" s="114"/>
       <c r="C43" s="42" t="s">
         <v>79</v>
       </c>
@@ -2664,9 +2941,9 @@
       </c>
       <c r="G43" s="84"/>
     </row>
-    <row r="44" spans="1:7" ht="16.5">
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="107"/>
+      <c r="B44" s="114"/>
       <c r="C44" s="34" t="s">
         <v>80</v>
       </c>
@@ -2681,9 +2958,9 @@
       </c>
       <c r="G44" s="84"/>
     </row>
-    <row r="45" spans="1:7" ht="16.5">
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="107"/>
+      <c r="B45" s="114"/>
       <c r="C45" s="34" t="s">
         <v>81</v>
       </c>
@@ -2696,9 +2973,9 @@
       <c r="F45" s="34"/>
       <c r="G45" s="84"/>
     </row>
-    <row r="46" spans="1:7" ht="16.5">
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="107"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="34" t="s">
         <v>82</v>
       </c>
@@ -2711,9 +2988,9 @@
       <c r="F46" s="34"/>
       <c r="G46" s="84"/>
     </row>
-    <row r="47" spans="1:7" ht="16.5">
+    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="11"/>
-      <c r="B47" s="107"/>
+      <c r="B47" s="114"/>
       <c r="C47" s="41" t="s">
         <v>84</v>
       </c>
@@ -2726,9 +3003,9 @@
       <c r="F47" s="41"/>
       <c r="G47" s="86"/>
     </row>
-    <row r="48" spans="1:7" ht="16.5">
+    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="107"/>
+      <c r="B48" s="114"/>
       <c r="C48" s="41" t="s">
         <v>85</v>
       </c>
@@ -2745,9 +3022,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5">
+    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="107"/>
+      <c r="B49" s="114"/>
       <c r="C49" s="41" t="s">
         <v>88</v>
       </c>
@@ -2762,9 +3039,9 @@
       </c>
       <c r="G49" s="86"/>
     </row>
-    <row r="50" spans="1:7" ht="17.25" thickBot="1">
+    <row r="50" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
-      <c r="B50" s="108"/>
+      <c r="B50" s="115"/>
       <c r="C50" s="39" t="s">
         <v>89</v>
       </c>
@@ -2773,11 +3050,11 @@
       <c r="F50" s="39"/>
       <c r="G50" s="54"/>
     </row>
-    <row r="51" spans="1:7" ht="16.5">
+    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>42467</v>
       </c>
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="16" t="s">
@@ -2794,9 +3071,9 @@
       </c>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="1:7" ht="16.5">
+    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
-      <c r="B52" s="107"/>
+      <c r="B52" s="114"/>
       <c r="C52" s="20" t="s">
         <v>91</v>
       </c>
@@ -2809,9 +3086,9 @@
       <c r="F52" s="22"/>
       <c r="G52" s="30"/>
     </row>
-    <row r="53" spans="1:7" ht="16.5">
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="107"/>
+      <c r="B53" s="114"/>
       <c r="C53" s="23" t="s">
         <v>93</v>
       </c>
@@ -2826,9 +3103,9 @@
       </c>
       <c r="G53" s="84"/>
     </row>
-    <row r="54" spans="1:7" ht="16.5">
+    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
-      <c r="B54" s="107"/>
+      <c r="B54" s="114"/>
       <c r="C54" s="20" t="s">
         <v>94</v>
       </c>
@@ -2841,9 +3118,9 @@
       <c r="F54" s="34"/>
       <c r="G54" s="84"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5">
+    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
-      <c r="B55" s="107"/>
+      <c r="B55" s="114"/>
       <c r="C55" s="20" t="s">
         <v>91</v>
       </c>
@@ -2860,9 +3137,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.25" thickBot="1">
+    <row r="56" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
-      <c r="B56" s="108"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="26" t="s">
         <v>97</v>
       </c>
@@ -2879,11 +3156,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="33">
+    <row r="57" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>42468</v>
       </c>
-      <c r="B57" s="107" t="s">
+      <c r="B57" s="114" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -2902,9 +3179,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5">
+    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
-      <c r="B58" s="107"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="34" t="s">
         <v>100</v>
       </c>
@@ -2919,47 +3196,47 @@
       </c>
       <c r="G58" s="84"/>
     </row>
-    <row r="59" spans="1:7" ht="16.5">
+    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
-      <c r="B59" s="107"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="34"/>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
       <c r="F59" s="34"/>
       <c r="G59" s="84"/>
     </row>
-    <row r="60" spans="1:7" ht="16.5">
+    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
-      <c r="B60" s="107"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="34"/>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
       <c r="F60" s="34"/>
       <c r="G60" s="84"/>
     </row>
-    <row r="61" spans="1:7" ht="16.5">
+    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
-      <c r="B61" s="107"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="34"/>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
       <c r="F61" s="34"/>
       <c r="G61" s="84"/>
     </row>
-    <row r="62" spans="1:7" ht="17.25" thickBot="1">
+    <row r="62" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13"/>
-      <c r="B62" s="107"/>
+      <c r="B62" s="114"/>
       <c r="C62" s="39"/>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="F62" s="39"/>
       <c r="G62" s="54"/>
     </row>
-    <row r="63" spans="1:7" ht="33.75" thickBot="1">
+    <row r="63" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>42469</v>
       </c>
-      <c r="B63" s="106" t="s">
+      <c r="B63" s="113" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="19" t="s">
@@ -2978,9 +3255,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5">
+    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
-      <c r="B64" s="107"/>
+      <c r="B64" s="114"/>
       <c r="C64" s="28" t="s">
         <v>100</v>
       </c>
@@ -2997,46 +3274,46 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5">
-      <c r="B65" s="107"/>
+    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B65" s="114"/>
       <c r="C65" s="31"/>
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="25"/>
       <c r="G65" s="32"/>
     </row>
-    <row r="66" spans="1:7" ht="16.5">
+    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
-      <c r="B66" s="107"/>
+      <c r="B66" s="114"/>
       <c r="C66" s="20"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="28"/>
       <c r="G66" s="32"/>
     </row>
-    <row r="67" spans="1:7" ht="16.5">
+    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
-      <c r="B67" s="107"/>
+      <c r="B67" s="114"/>
       <c r="C67" s="34"/>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
       <c r="F67" s="34"/>
       <c r="G67" s="84"/>
     </row>
-    <row r="68" spans="1:7" ht="17.25" thickBot="1">
+    <row r="68" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13"/>
-      <c r="B68" s="108"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="39"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="39"/>
       <c r="G68" s="54"/>
     </row>
-    <row r="69" spans="1:7" ht="16.5">
+    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>42471</v>
       </c>
-      <c r="B69" s="107" t="s">
+      <c r="B69" s="114" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="42" t="s">
@@ -3051,9 +3328,9 @@
       <c r="F69" s="38"/>
       <c r="G69" s="85"/>
     </row>
-    <row r="70" spans="1:7" ht="16.5">
+    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="107"/>
+      <c r="B70" s="114"/>
       <c r="C70" s="34" t="s">
         <v>21</v>
       </c>
@@ -3066,9 +3343,9 @@
       <c r="F70" s="34"/>
       <c r="G70" s="84"/>
     </row>
-    <row r="71" spans="1:7" ht="16.5">
+    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
-      <c r="B71" s="107"/>
+      <c r="B71" s="114"/>
       <c r="C71" s="34" t="s">
         <v>111</v>
       </c>
@@ -3083,9 +3360,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5">
+    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
-      <c r="B72" s="107"/>
+      <c r="B72" s="114"/>
       <c r="C72" s="34" t="s">
         <v>113</v>
       </c>
@@ -3098,9 +3375,9 @@
       <c r="F72" s="34"/>
       <c r="G72" s="84"/>
     </row>
-    <row r="73" spans="1:7" ht="16.5">
+    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
-      <c r="B73" s="107"/>
+      <c r="B73" s="114"/>
       <c r="C73" s="34" t="s">
         <v>111</v>
       </c>
@@ -3113,20 +3390,20 @@
       <c r="F73" s="34"/>
       <c r="G73" s="84"/>
     </row>
-    <row r="74" spans="1:7" ht="17.25" thickBot="1">
+    <row r="74" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="13"/>
-      <c r="B74" s="108"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="39"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="F74" s="39"/>
       <c r="G74" s="54"/>
     </row>
-    <row r="75" spans="1:7" ht="16.5">
+    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>42472</v>
       </c>
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="37" t="s">
@@ -3141,9 +3418,9 @@
       <c r="F75" s="1"/>
       <c r="G75" s="55"/>
     </row>
-    <row r="76" spans="1:7" ht="16.5">
+    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
-      <c r="B76" s="104"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="2" t="s">
         <v>116</v>
       </c>
@@ -3158,8 +3435,8 @@
       </c>
       <c r="G76" s="53"/>
     </row>
-    <row r="77" spans="1:7" ht="16.5">
-      <c r="B77" s="104"/>
+    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B77" s="107"/>
       <c r="C77" s="2" t="s">
         <v>120</v>
       </c>
@@ -3172,9 +3449,9 @@
       <c r="F77" s="2"/>
       <c r="G77" s="53"/>
     </row>
-    <row r="78" spans="1:7" ht="16.5">
+    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
-      <c r="B78" s="104"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="2" t="s">
         <v>118</v>
       </c>
@@ -3187,9 +3464,9 @@
       <c r="F78" s="2"/>
       <c r="G78" s="53"/>
     </row>
-    <row r="79" spans="1:7" ht="16.5">
+    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
-      <c r="B79" s="104"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="2" t="s">
         <v>94</v>
       </c>
@@ -3202,9 +3479,9 @@
       <c r="F79" s="2"/>
       <c r="G79" s="53"/>
     </row>
-    <row r="80" spans="1:7" ht="17.25" thickBot="1">
+    <row r="80" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="13"/>
-      <c r="B80" s="104"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3221,11 +3498,11 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5">
+    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>42473</v>
       </c>
-      <c r="B81" s="103" t="s">
+      <c r="B81" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="37" t="s">
@@ -3240,9 +3517,9 @@
       <c r="F81" s="1"/>
       <c r="G81" s="55"/>
     </row>
-    <row r="82" spans="1:7" ht="16.5">
+    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
-      <c r="B82" s="104"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="2" t="s">
         <v>128</v>
       </c>
@@ -3257,9 +3534,9 @@
       </c>
       <c r="G82" s="53"/>
     </row>
-    <row r="83" spans="1:7" ht="16.5">
+    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
-      <c r="B83" s="104"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="2" t="s">
         <v>100</v>
       </c>
@@ -3274,9 +3551,9 @@
       </c>
       <c r="G83" s="53"/>
     </row>
-    <row r="84" spans="1:7" ht="16.5">
+    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
-      <c r="B84" s="104"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="2" t="s">
         <v>130</v>
       </c>
@@ -3291,9 +3568,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5">
+    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
-      <c r="B85" s="104"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="2" t="s">
         <v>133</v>
       </c>
@@ -3306,9 +3583,9 @@
       <c r="F85" s="34"/>
       <c r="G85" s="53"/>
     </row>
-    <row r="86" spans="1:7" ht="16.5">
+    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="15"/>
-      <c r="B86" s="104"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="2" t="s">
         <v>134</v>
       </c>
@@ -3321,9 +3598,9 @@
       <c r="F86" s="41"/>
       <c r="G86" s="57"/>
     </row>
-    <row r="87" spans="1:7" ht="16.5">
+    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="15"/>
-      <c r="B87" s="104"/>
+      <c r="B87" s="107"/>
       <c r="C87" s="2" t="s">
         <v>135</v>
       </c>
@@ -3338,9 +3615,9 @@
       </c>
       <c r="G87" s="57"/>
     </row>
-    <row r="88" spans="1:7" ht="17.25" thickBot="1">
+    <row r="88" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="15"/>
-      <c r="B88" s="105"/>
+      <c r="B88" s="108"/>
       <c r="C88" s="50" t="s">
         <v>100</v>
       </c>
@@ -3355,11 +3632,11 @@
       </c>
       <c r="G88" s="57"/>
     </row>
-    <row r="89" spans="1:7" ht="16.5">
+    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="61">
         <v>42475</v>
       </c>
-      <c r="B89" s="103" t="s">
+      <c r="B89" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="58" t="s">
@@ -3376,9 +3653,9 @@
       </c>
       <c r="G89" s="52"/>
     </row>
-    <row r="90" spans="1:7" ht="16.5">
+    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="62"/>
-      <c r="B90" s="104"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="2" t="s">
         <v>21</v>
       </c>
@@ -3393,9 +3670,9 @@
       </c>
       <c r="G90" s="53"/>
     </row>
-    <row r="91" spans="1:7" ht="16.5">
+    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="63"/>
-      <c r="B91" s="104"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
@@ -3412,9 +3689,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5">
+    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="62"/>
-      <c r="B92" s="104"/>
+      <c r="B92" s="107"/>
       <c r="C92" s="2" t="s">
         <v>139</v>
       </c>
@@ -3431,9 +3708,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5">
+    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="62"/>
-      <c r="B93" s="104"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="2" t="s">
         <v>143</v>
       </c>
@@ -3450,9 +3727,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5">
+    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="64"/>
-      <c r="B94" s="104"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="2" t="s">
         <v>37</v>
       </c>
@@ -3469,9 +3746,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="17.25" thickBot="1">
+    <row r="95" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="65"/>
-      <c r="B95" s="105"/>
+      <c r="B95" s="108"/>
       <c r="C95" s="66" t="s">
         <v>147</v>
       </c>
@@ -3488,11 +3765,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5">
+    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B96" s="104" t="s">
+      <c r="B96" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="60" t="s">
@@ -3509,9 +3786,9 @@
       </c>
       <c r="G96" s="55"/>
     </row>
-    <row r="97" spans="1:7" ht="16.5">
+    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
-      <c r="B97" s="104"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="2" t="s">
         <v>153</v>
       </c>
@@ -3528,8 +3805,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5">
-      <c r="B98" s="104"/>
+    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B98" s="107"/>
       <c r="C98" s="2" t="s">
         <v>37</v>
       </c>
@@ -3546,9 +3823,9 @@
         <v>155</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5">
+    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
-      <c r="B99" s="104"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="2" t="s">
         <v>156</v>
       </c>
@@ -3565,9 +3842,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5">
+    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
-      <c r="B100" s="104"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="2" t="s">
         <v>100</v>
       </c>
@@ -3582,20 +3859,20 @@
       </c>
       <c r="G100" s="53"/>
     </row>
-    <row r="101" spans="1:7" ht="17.25" thickBot="1">
+    <row r="101" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="13"/>
-      <c r="B101" s="104"/>
+      <c r="B101" s="107"/>
       <c r="C101" s="3"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="3"/>
       <c r="G101" s="56"/>
     </row>
-    <row r="102" spans="1:7" ht="16.5">
+    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="14">
         <v>42478</v>
       </c>
-      <c r="B102" s="103" t="s">
+      <c r="B102" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="60" t="s">
@@ -3612,9 +3889,9 @@
       </c>
       <c r="G102" s="55"/>
     </row>
-    <row r="103" spans="1:7" ht="16.5">
+    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
-      <c r="B103" s="104"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="2" t="s">
         <v>161</v>
       </c>
@@ -3629,8 +3906,8 @@
       </c>
       <c r="G103" s="53"/>
     </row>
-    <row r="104" spans="1:7" ht="16.5">
-      <c r="B104" s="104"/>
+    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B104" s="107"/>
       <c r="C104" s="2" t="s">
         <v>162</v>
       </c>
@@ -3645,9 +3922,9 @@
       </c>
       <c r="G104" s="53"/>
     </row>
-    <row r="105" spans="1:7" ht="16.5">
+    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
-      <c r="B105" s="104"/>
+      <c r="B105" s="107"/>
       <c r="C105" s="2" t="s">
         <v>163</v>
       </c>
@@ -3662,9 +3939,9 @@
       </c>
       <c r="G105" s="53"/>
     </row>
-    <row r="106" spans="1:7" ht="16.5">
+    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
-      <c r="B106" s="104"/>
+      <c r="B106" s="107"/>
       <c r="C106" s="2" t="s">
         <v>165</v>
       </c>
@@ -3679,9 +3956,9 @@
       </c>
       <c r="G106" s="53"/>
     </row>
-    <row r="107" spans="1:7" ht="17.25" thickBot="1">
+    <row r="107" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="13"/>
-      <c r="B107" s="105"/>
+      <c r="B107" s="108"/>
       <c r="C107" s="3" t="s">
         <v>100</v>
       </c>
@@ -3692,11 +3969,11 @@
       <c r="F107" s="3"/>
       <c r="G107" s="56"/>
     </row>
-    <row r="108" spans="1:7" ht="16.5">
+    <row r="108" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="14">
         <v>42479</v>
       </c>
-      <c r="B108" s="104" t="s">
+      <c r="B108" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="69" t="s">
@@ -3713,9 +3990,9 @@
       </c>
       <c r="G108" s="55"/>
     </row>
-    <row r="109" spans="1:7" ht="16.5">
+    <row r="109" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
-      <c r="B109" s="104"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="2" t="s">
         <v>169</v>
       </c>
@@ -3730,8 +4007,8 @@
       </c>
       <c r="G109" s="53"/>
     </row>
-    <row r="110" spans="1:7" ht="16.5">
-      <c r="B110" s="104"/>
+    <row r="110" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B110" s="107"/>
       <c r="C110" s="2" t="s">
         <v>100</v>
       </c>
@@ -3746,9 +4023,9 @@
       </c>
       <c r="G110" s="53"/>
     </row>
-    <row r="111" spans="1:7" ht="16.5">
+    <row r="111" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
-      <c r="B111" s="104"/>
+      <c r="B111" s="107"/>
       <c r="C111" s="2" t="s">
         <v>170</v>
       </c>
@@ -3765,9 +4042,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="16.5">
+    <row r="112" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
-      <c r="B112" s="104"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="2" t="s">
         <v>172</v>
       </c>
@@ -3782,9 +4059,9 @@
       </c>
       <c r="G112" s="53"/>
     </row>
-    <row r="113" spans="1:7" ht="16.5">
+    <row r="113" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="15"/>
-      <c r="B113" s="104"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="2" t="s">
         <v>172</v>
       </c>
@@ -3799,9 +4076,9 @@
       </c>
       <c r="G113" s="57"/>
     </row>
-    <row r="114" spans="1:7" ht="16.5">
+    <row r="114" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="15"/>
-      <c r="B114" s="104"/>
+      <c r="B114" s="107"/>
       <c r="C114" s="70" t="s">
         <v>163</v>
       </c>
@@ -3816,9 +4093,9 @@
       </c>
       <c r="G114" s="57"/>
     </row>
-    <row r="115" spans="1:7" ht="17.25" thickBot="1">
+    <row r="115" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="13"/>
-      <c r="B115" s="105"/>
+      <c r="B115" s="108"/>
       <c r="C115" s="3" t="s">
         <v>100</v>
       </c>
@@ -3831,11 +4108,11 @@
       <c r="F115" s="3"/>
       <c r="G115" s="56"/>
     </row>
-    <row r="116" spans="1:7" ht="16.5">
+    <row r="116" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A116" s="14">
         <v>42480</v>
       </c>
-      <c r="B116" s="104" t="s">
+      <c r="B116" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="69" t="s">
@@ -3852,9 +4129,9 @@
       </c>
       <c r="G116" s="55"/>
     </row>
-    <row r="117" spans="1:7" ht="16.5">
+    <row r="117" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
-      <c r="B117" s="104"/>
+      <c r="B117" s="107"/>
       <c r="C117" s="2" t="s">
         <v>174</v>
       </c>
@@ -3869,8 +4146,8 @@
       </c>
       <c r="G117" s="53"/>
     </row>
-    <row r="118" spans="1:7" ht="16.5">
-      <c r="B118" s="104"/>
+    <row r="118" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B118" s="107"/>
       <c r="C118" s="2" t="s">
         <v>163</v>
       </c>
@@ -3885,9 +4162,9 @@
       </c>
       <c r="G118" s="53"/>
     </row>
-    <row r="119" spans="1:7" ht="16.5">
+    <row r="119" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
-      <c r="B119" s="104"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="2" t="s">
         <v>175</v>
       </c>
@@ -3902,9 +4179,9 @@
       </c>
       <c r="G119" s="53"/>
     </row>
-    <row r="120" spans="1:7" ht="16.5">
+    <row r="120" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
-      <c r="B120" s="104"/>
+      <c r="B120" s="107"/>
       <c r="C120" s="2" t="s">
         <v>163</v>
       </c>
@@ -3919,9 +4196,9 @@
       </c>
       <c r="G120" s="53"/>
     </row>
-    <row r="121" spans="1:7" ht="16.5">
+    <row r="121" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A121" s="15"/>
-      <c r="B121" s="104"/>
+      <c r="B121" s="107"/>
       <c r="C121" s="70" t="s">
         <v>177</v>
       </c>
@@ -3936,9 +4213,9 @@
       </c>
       <c r="G121" s="57"/>
     </row>
-    <row r="122" spans="1:7" ht="17.25" thickBot="1">
+    <row r="122" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="13"/>
-      <c r="B122" s="104"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="3" t="s">
         <v>179</v>
       </c>
@@ -3953,11 +4230,11 @@
       </c>
       <c r="G122" s="56"/>
     </row>
-    <row r="123" spans="1:7" ht="16.5">
+    <row r="123" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
         <v>42481</v>
       </c>
-      <c r="B123" s="103" t="s">
+      <c r="B123" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="69" t="s">
@@ -3974,9 +4251,9 @@
       </c>
       <c r="G123" s="55"/>
     </row>
-    <row r="124" spans="1:7" ht="16.5">
+    <row r="124" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
-      <c r="B124" s="104"/>
+      <c r="B124" s="107"/>
       <c r="C124" s="2" t="s">
         <v>179</v>
       </c>
@@ -3991,8 +4268,8 @@
       </c>
       <c r="G124" s="53"/>
     </row>
-    <row r="125" spans="1:7" ht="16.5">
-      <c r="B125" s="104"/>
+    <row r="125" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B125" s="107"/>
       <c r="C125" s="2" t="s">
         <v>181</v>
       </c>
@@ -4007,9 +4284,9 @@
       </c>
       <c r="G125" s="53"/>
     </row>
-    <row r="126" spans="1:7" ht="16.5">
+    <row r="126" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
-      <c r="B126" s="104"/>
+      <c r="B126" s="107"/>
       <c r="C126" s="2" t="s">
         <v>182</v>
       </c>
@@ -4024,9 +4301,9 @@
       </c>
       <c r="G126" s="53"/>
     </row>
-    <row r="127" spans="1:7" ht="16.5">
+    <row r="127" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
-      <c r="B127" s="104"/>
+      <c r="B127" s="107"/>
       <c r="C127" s="2" t="s">
         <v>183</v>
       </c>
@@ -4041,9 +4318,9 @@
       </c>
       <c r="G127" s="53"/>
     </row>
-    <row r="128" spans="1:7" ht="16.5">
+    <row r="128" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A128" s="15"/>
-      <c r="B128" s="104"/>
+      <c r="B128" s="107"/>
       <c r="C128" s="70" t="s">
         <v>181</v>
       </c>
@@ -4058,9 +4335,9 @@
       </c>
       <c r="G128" s="57"/>
     </row>
-    <row r="129" spans="1:7" ht="16.5">
+    <row r="129" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A129" s="15"/>
-      <c r="B129" s="104"/>
+      <c r="B129" s="107"/>
       <c r="C129" s="2" t="s">
         <v>100</v>
       </c>
@@ -4075,9 +4352,9 @@
       </c>
       <c r="G129" s="57"/>
     </row>
-    <row r="130" spans="1:7" ht="17.25" thickBot="1">
+    <row r="130" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="13"/>
-      <c r="B130" s="105"/>
+      <c r="B130" s="108"/>
       <c r="C130" s="66" t="s">
         <v>181</v>
       </c>
@@ -4092,11 +4369,11 @@
       </c>
       <c r="G130" s="56"/>
     </row>
-    <row r="131" spans="1:7" ht="16.5">
+    <row r="131" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A131" s="14">
         <v>42482</v>
       </c>
-      <c r="B131" s="103" t="s">
+      <c r="B131" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="69" t="s">
@@ -4113,9 +4390,9 @@
       </c>
       <c r="G131" s="55"/>
     </row>
-    <row r="132" spans="1:7" ht="16.5">
+    <row r="132" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
-      <c r="B132" s="104"/>
+      <c r="B132" s="107"/>
       <c r="C132" s="2" t="s">
         <v>100</v>
       </c>
@@ -4130,8 +4407,8 @@
       </c>
       <c r="G132" s="53"/>
     </row>
-    <row r="133" spans="1:7" ht="16.5">
-      <c r="B133" s="104"/>
+    <row r="133" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B133" s="107"/>
       <c r="C133" s="2" t="s">
         <v>186</v>
       </c>
@@ -4146,9 +4423,9 @@
       </c>
       <c r="G133" s="53"/>
     </row>
-    <row r="134" spans="1:7" ht="16.5">
+    <row r="134" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
-      <c r="B134" s="104"/>
+      <c r="B134" s="107"/>
       <c r="C134" s="2" t="s">
         <v>189</v>
       </c>
@@ -4163,9 +4440,9 @@
       </c>
       <c r="G134" s="53"/>
     </row>
-    <row r="135" spans="1:7" ht="16.5">
+    <row r="135" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
-      <c r="B135" s="104"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="2" t="s">
         <v>190</v>
       </c>
@@ -4178,9 +4455,9 @@
       <c r="F135" s="2"/>
       <c r="G135" s="53"/>
     </row>
-    <row r="136" spans="1:7" ht="17.25" thickBot="1">
+    <row r="136" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="13"/>
-      <c r="B136" s="105"/>
+      <c r="B136" s="108"/>
       <c r="C136" s="3" t="s">
         <v>189</v>
       </c>
@@ -4191,7 +4468,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="56"/>
     </row>
-    <row r="137" spans="1:7" ht="16.5">
+    <row r="137" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B137" s="89"/>
       <c r="C137" s="72" t="s">
         <v>191</v>
@@ -4205,9 +4482,9 @@
       <c r="F137" s="74"/>
       <c r="G137" s="55"/>
     </row>
-    <row r="138" spans="1:7" ht="16.5">
+    <row r="138" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
-      <c r="B138" s="104" t="s">
+      <c r="B138" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="75" t="s">
@@ -4224,8 +4501,8 @@
       </c>
       <c r="G138" s="53"/>
     </row>
-    <row r="139" spans="1:7" ht="16.5">
-      <c r="B139" s="104"/>
+    <row r="139" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B139" s="107"/>
       <c r="C139" s="75" t="s">
         <v>21</v>
       </c>
@@ -4240,11 +4517,11 @@
       </c>
       <c r="G139" s="53"/>
     </row>
-    <row r="140" spans="1:7" ht="16.5">
+    <row r="140" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A140" s="11">
         <v>42485</v>
       </c>
-      <c r="B140" s="104"/>
+      <c r="B140" s="107"/>
       <c r="C140" s="75" t="s">
         <v>193</v>
       </c>
@@ -4259,9 +4536,9 @@
       </c>
       <c r="G140" s="53"/>
     </row>
-    <row r="141" spans="1:7" ht="16.5">
+    <row r="141" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
-      <c r="B141" s="104"/>
+      <c r="B141" s="107"/>
       <c r="C141" s="75" t="s">
         <v>192</v>
       </c>
@@ -4276,9 +4553,9 @@
       </c>
       <c r="G141" s="53"/>
     </row>
-    <row r="142" spans="1:7" ht="17.25" thickBot="1">
+    <row r="142" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="13"/>
-      <c r="B142" s="104"/>
+      <c r="B142" s="107"/>
       <c r="C142" s="75" t="s">
         <v>194</v>
       </c>
@@ -4293,8 +4570,8 @@
       </c>
       <c r="G142" s="56"/>
     </row>
-    <row r="143" spans="1:7" ht="16.5">
-      <c r="B143" s="104"/>
+    <row r="143" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B143" s="107"/>
       <c r="C143" s="75" t="s">
         <v>195</v>
       </c>
@@ -4307,9 +4584,9 @@
       <c r="F143" s="75"/>
       <c r="G143" s="55"/>
     </row>
-    <row r="144" spans="1:7" ht="16.5">
+    <row r="144" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
-      <c r="B144" s="104"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="75" t="s">
         <v>192</v>
       </c>
@@ -4324,8 +4601,8 @@
       </c>
       <c r="G144" s="53"/>
     </row>
-    <row r="145" spans="1:7" ht="17.25" thickBot="1">
-      <c r="B145" s="105"/>
+    <row r="145" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="108"/>
       <c r="C145" s="78" t="s">
         <v>191</v>
       </c>
@@ -4340,8 +4617,8 @@
       </c>
       <c r="G145" s="53"/>
     </row>
-    <row r="146" spans="1:7" ht="16.5">
-      <c r="B146" s="103" t="s">
+    <row r="146" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B146" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="80" t="s">
@@ -4356,9 +4633,9 @@
       <c r="F146" s="1"/>
       <c r="G146" s="55"/>
     </row>
-    <row r="147" spans="1:7" ht="16.5">
+    <row r="147" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
-      <c r="B147" s="104"/>
+      <c r="B147" s="107"/>
       <c r="C147" s="72" t="s">
         <v>191</v>
       </c>
@@ -4371,8 +4648,8 @@
       <c r="F147" s="2"/>
       <c r="G147" s="53"/>
     </row>
-    <row r="148" spans="1:7" ht="16.5">
-      <c r="B148" s="104"/>
+    <row r="148" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B148" s="107"/>
       <c r="C148" s="34" t="s">
         <v>196</v>
       </c>
@@ -4387,11 +4664,11 @@
       </c>
       <c r="G148" s="53"/>
     </row>
-    <row r="149" spans="1:7" ht="16.5">
+    <row r="149" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A149" s="11">
         <v>42486</v>
       </c>
-      <c r="B149" s="104"/>
+      <c r="B149" s="107"/>
       <c r="C149" s="34" t="s">
         <v>197</v>
       </c>
@@ -4406,9 +4683,9 @@
       </c>
       <c r="G149" s="53"/>
     </row>
-    <row r="150" spans="1:7" ht="16.5">
+    <row r="150" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
-      <c r="B150" s="104"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="75" t="s">
         <v>191</v>
       </c>
@@ -4423,17 +4700,17 @@
       </c>
       <c r="G150" s="53"/>
     </row>
-    <row r="151" spans="1:7" ht="17.25" thickBot="1">
+    <row r="151" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="13"/>
-      <c r="B151" s="105"/>
+      <c r="B151" s="108"/>
       <c r="C151" s="75"/>
       <c r="D151" s="76"/>
       <c r="E151" s="76"/>
       <c r="F151" s="77"/>
       <c r="G151" s="56"/>
     </row>
-    <row r="152" spans="1:7" ht="16.5">
-      <c r="B152" s="104" t="s">
+    <row r="152" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B152" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="81" t="s">
@@ -4450,9 +4727,9 @@
       </c>
       <c r="G152" s="55"/>
     </row>
-    <row r="153" spans="1:7" ht="16.5">
+    <row r="153" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
-      <c r="B153" s="104"/>
+      <c r="B153" s="107"/>
       <c r="C153" s="37" t="s">
         <v>201</v>
       </c>
@@ -4467,11 +4744,11 @@
       </c>
       <c r="G153" s="53"/>
     </row>
-    <row r="154" spans="1:7" ht="16.5">
+    <row r="154" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A154" s="14">
         <v>42487</v>
       </c>
-      <c r="B154" s="104"/>
+      <c r="B154" s="107"/>
       <c r="C154" s="34" t="s">
         <v>202</v>
       </c>
@@ -4486,9 +4763,9 @@
       </c>
       <c r="G154" s="53"/>
     </row>
-    <row r="155" spans="1:7" ht="16.5">
+    <row r="155" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
-      <c r="B155" s="104"/>
+      <c r="B155" s="107"/>
       <c r="C155" s="34" t="s">
         <v>201</v>
       </c>
@@ -4503,9 +4780,9 @@
       </c>
       <c r="G155" s="53"/>
     </row>
-    <row r="156" spans="1:7" ht="16.5">
+    <row r="156" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
-      <c r="B156" s="104"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="75" t="s">
         <v>201</v>
       </c>
@@ -4520,9 +4797,9 @@
       </c>
       <c r="G156" s="53"/>
     </row>
-    <row r="157" spans="1:7" ht="17.25" thickBot="1">
+    <row r="157" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="13"/>
-      <c r="B157" s="105"/>
+      <c r="B157" s="108"/>
       <c r="C157" s="82" t="s">
         <v>205</v>
       </c>
@@ -4537,8 +4814,8 @@
       </c>
       <c r="G157" s="56"/>
     </row>
-    <row r="158" spans="1:7" ht="16.5">
-      <c r="B158" s="104" t="s">
+    <row r="158" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B158" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="37" t="s">
@@ -4555,9 +4832,9 @@
       </c>
       <c r="G158" s="55"/>
     </row>
-    <row r="159" spans="1:7" ht="16.5">
+    <row r="159" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
-      <c r="B159" s="104"/>
+      <c r="B159" s="107"/>
       <c r="C159" s="2" t="s">
         <v>210</v>
       </c>
@@ -4572,11 +4849,11 @@
       </c>
       <c r="G159" s="53"/>
     </row>
-    <row r="160" spans="1:7" ht="16.5">
+    <row r="160" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A160" s="14">
         <v>42488</v>
       </c>
-      <c r="B160" s="104"/>
+      <c r="B160" s="107"/>
       <c r="C160" s="2" t="s">
         <v>212</v>
       </c>
@@ -4591,9 +4868,9 @@
       </c>
       <c r="G160" s="53"/>
     </row>
-    <row r="161" spans="1:7" ht="16.5">
+    <row r="161" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
-      <c r="B161" s="104"/>
+      <c r="B161" s="107"/>
       <c r="C161" s="2" t="s">
         <v>206</v>
       </c>
@@ -4608,9 +4885,9 @@
       </c>
       <c r="G161" s="53"/>
     </row>
-    <row r="162" spans="1:7" ht="16.5">
+    <row r="162" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
-      <c r="B162" s="104"/>
+      <c r="B162" s="107"/>
       <c r="C162" s="2" t="s">
         <v>209</v>
       </c>
@@ -4623,9 +4900,9 @@
       <c r="F162" s="2"/>
       <c r="G162" s="53"/>
     </row>
-    <row r="163" spans="1:7" ht="16.5">
+    <row r="163" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A163" s="15"/>
-      <c r="B163" s="104"/>
+      <c r="B163" s="107"/>
       <c r="C163" s="2" t="s">
         <v>215</v>
       </c>
@@ -4640,9 +4917,9 @@
       </c>
       <c r="G163" s="57"/>
     </row>
-    <row r="164" spans="1:7" ht="16.5">
+    <row r="164" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A164" s="15"/>
-      <c r="B164" s="104"/>
+      <c r="B164" s="107"/>
       <c r="C164" s="70" t="s">
         <v>207</v>
       </c>
@@ -4659,9 +4936,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="17.25" thickBot="1">
+    <row r="165" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="13"/>
-      <c r="B165" s="105"/>
+      <c r="B165" s="108"/>
       <c r="C165" s="3" t="s">
         <v>191</v>
       </c>
@@ -4676,8 +4953,8 @@
       </c>
       <c r="G165" s="56"/>
     </row>
-    <row r="166" spans="1:7" ht="16.5">
-      <c r="B166" s="103" t="s">
+    <row r="166" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B166" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="69" t="s">
@@ -4694,9 +4971,9 @@
       </c>
       <c r="G166" s="55"/>
     </row>
-    <row r="167" spans="1:7" ht="16.5">
+    <row r="167" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
-      <c r="B167" s="104"/>
+      <c r="B167" s="107"/>
       <c r="C167" s="2" t="s">
         <v>21</v>
       </c>
@@ -4711,11 +4988,11 @@
       </c>
       <c r="G167" s="53"/>
     </row>
-    <row r="168" spans="1:7" ht="16.5">
+    <row r="168" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A168" s="14">
         <v>42489</v>
       </c>
-      <c r="B168" s="104"/>
+      <c r="B168" s="107"/>
       <c r="C168" s="2" t="s">
         <v>216</v>
       </c>
@@ -4730,9 +5007,9 @@
       </c>
       <c r="G168" s="53"/>
     </row>
-    <row r="169" spans="1:7" ht="16.5">
+    <row r="169" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
-      <c r="B169" s="104"/>
+      <c r="B169" s="107"/>
       <c r="C169" s="2" t="s">
         <v>212</v>
       </c>
@@ -4747,26 +5024,26 @@
       </c>
       <c r="G169" s="53"/>
     </row>
-    <row r="170" spans="1:7" ht="16.5">
+    <row r="170" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
-      <c r="B170" s="104"/>
+      <c r="B170" s="107"/>
       <c r="C170" s="2"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="2"/>
       <c r="G170" s="53"/>
     </row>
-    <row r="171" spans="1:7" ht="17.25" thickBot="1">
+    <row r="171" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="13"/>
-      <c r="B171" s="105"/>
+      <c r="B171" s="108"/>
       <c r="C171" s="3"/>
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
       <c r="F171" s="3"/>
       <c r="G171" s="56"/>
     </row>
-    <row r="172" spans="1:7" ht="16.5">
-      <c r="B172" s="104" t="s">
+    <row r="172" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B172" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="69" t="s">
@@ -4783,9 +5060,9 @@
       </c>
       <c r="G172" s="55"/>
     </row>
-    <row r="173" spans="1:7" ht="16.5">
+    <row r="173" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
-      <c r="B173" s="104"/>
+      <c r="B173" s="107"/>
       <c r="C173" s="2" t="s">
         <v>191</v>
       </c>
@@ -4800,11 +5077,11 @@
       </c>
       <c r="G173" s="53"/>
     </row>
-    <row r="174" spans="1:7" ht="16.5">
+    <row r="174" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A174" s="14">
         <v>42490</v>
       </c>
-      <c r="B174" s="104"/>
+      <c r="B174" s="107"/>
       <c r="C174" s="2" t="s">
         <v>212</v>
       </c>
@@ -4819,35 +5096,35 @@
       </c>
       <c r="G174" s="53"/>
     </row>
-    <row r="175" spans="1:7" ht="16.5">
+    <row r="175" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
-      <c r="B175" s="104"/>
+      <c r="B175" s="107"/>
       <c r="C175" s="2"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="2"/>
       <c r="G175" s="53"/>
     </row>
-    <row r="176" spans="1:7" ht="16.5">
+    <row r="176" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
-      <c r="B176" s="104"/>
+      <c r="B176" s="107"/>
       <c r="C176" s="2"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="2"/>
       <c r="G176" s="53"/>
     </row>
-    <row r="177" spans="1:7" ht="17.25" thickBot="1">
+    <row r="177" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="13"/>
-      <c r="B177" s="104"/>
+      <c r="B177" s="107"/>
       <c r="C177" s="3"/>
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
       <c r="F177" s="3"/>
       <c r="G177" s="56"/>
     </row>
-    <row r="178" spans="1:7" ht="16.5">
-      <c r="B178" s="103" t="s">
+    <row r="178" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B178" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="2" t="s">
@@ -4864,9 +5141,9 @@
       </c>
       <c r="G178" s="55"/>
     </row>
-    <row r="179" spans="1:7" ht="16.5">
+    <row r="179" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
-      <c r="B179" s="104"/>
+      <c r="B179" s="107"/>
       <c r="C179" s="2" t="s">
         <v>220</v>
       </c>
@@ -4883,11 +5160,11 @@
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.5">
+    <row r="180" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A180" s="14">
         <v>42492</v>
       </c>
-      <c r="B180" s="104"/>
+      <c r="B180" s="107"/>
       <c r="C180" s="2" t="s">
         <v>219</v>
       </c>
@@ -4902,9 +5179,9 @@
       </c>
       <c r="G180" s="53"/>
     </row>
-    <row r="181" spans="1:7" ht="16.5">
+    <row r="181" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
-      <c r="B181" s="104"/>
+      <c r="B181" s="107"/>
       <c r="C181" s="2" t="s">
         <v>219</v>
       </c>
@@ -4919,9 +5196,9 @@
       </c>
       <c r="G181" s="53"/>
     </row>
-    <row r="182" spans="1:7" ht="16.5">
+    <row r="182" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
-      <c r="B182" s="104"/>
+      <c r="B182" s="107"/>
       <c r="C182" s="2" t="s">
         <v>222</v>
       </c>
@@ -4936,9 +5213,9 @@
       </c>
       <c r="G182" s="53"/>
     </row>
-    <row r="183" spans="1:7" ht="17.25" thickBot="1">
+    <row r="183" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="13"/>
-      <c r="B183" s="105"/>
+      <c r="B183" s="108"/>
       <c r="C183" s="3" t="s">
         <v>223</v>
       </c>
@@ -4953,8 +5230,8 @@
       </c>
       <c r="G183" s="56"/>
     </row>
-    <row r="184" spans="1:7" ht="16.5">
-      <c r="B184" s="104" t="s">
+    <row r="184" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B184" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C184" s="69" t="s">
@@ -4971,9 +5248,9 @@
       </c>
       <c r="G184" s="55"/>
     </row>
-    <row r="185" spans="1:7" ht="16.5">
+    <row r="185" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
-      <c r="B185" s="104"/>
+      <c r="B185" s="107"/>
       <c r="C185" s="2" t="s">
         <v>226</v>
       </c>
@@ -4988,11 +5265,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="16.5">
+    <row r="186" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A186" s="14">
         <v>42493</v>
       </c>
-      <c r="B186" s="104"/>
+      <c r="B186" s="107"/>
       <c r="C186" s="2" t="s">
         <v>212</v>
       </c>
@@ -5007,9 +5284,9 @@
       </c>
       <c r="G186" s="53"/>
     </row>
-    <row r="187" spans="1:7" ht="16.5">
+    <row r="187" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
-      <c r="B187" s="104"/>
+      <c r="B187" s="107"/>
       <c r="C187" s="2" t="s">
         <v>229</v>
       </c>
@@ -5024,9 +5301,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="16.5">
+    <row r="188" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
-      <c r="B188" s="104"/>
+      <c r="B188" s="107"/>
       <c r="C188" s="2" t="s">
         <v>212</v>
       </c>
@@ -5041,9 +5318,9 @@
       </c>
       <c r="G188" s="53"/>
     </row>
-    <row r="189" spans="1:7" ht="16.5">
+    <row r="189" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A189" s="15"/>
-      <c r="B189" s="104"/>
+      <c r="B189" s="107"/>
       <c r="C189" s="2" t="s">
         <v>212</v>
       </c>
@@ -5060,9 +5337,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="16.5">
+    <row r="190" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A190" s="15"/>
-      <c r="B190" s="104"/>
+      <c r="B190" s="107"/>
       <c r="C190" s="2" t="s">
         <v>191</v>
       </c>
@@ -5075,17 +5352,17 @@
       <c r="F190" s="2"/>
       <c r="G190" s="53"/>
     </row>
-    <row r="191" spans="1:7" ht="17.25" thickBot="1">
+    <row r="191" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="13"/>
-      <c r="B191" s="104"/>
+      <c r="B191" s="107"/>
       <c r="C191" s="66"/>
       <c r="D191" s="67"/>
       <c r="E191" s="67"/>
       <c r="F191" s="66"/>
       <c r="G191" s="68"/>
     </row>
-    <row r="192" spans="1:7" ht="33">
-      <c r="B192" s="103" t="s">
+    <row r="192" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B192" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C192" s="100" t="s">
@@ -5102,9 +5379,9 @@
       </c>
       <c r="G192" s="55"/>
     </row>
-    <row r="193" spans="1:7" ht="16.5">
+    <row r="193" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
-      <c r="B193" s="104"/>
+      <c r="B193" s="107"/>
       <c r="C193" s="2" t="s">
         <v>232</v>
       </c>
@@ -5119,9 +5396,9 @@
       </c>
       <c r="G193" s="53"/>
     </row>
-    <row r="194" spans="1:7" ht="16.5">
+    <row r="194" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A194" s="97"/>
-      <c r="B194" s="104"/>
+      <c r="B194" s="107"/>
       <c r="C194" s="2" t="s">
         <v>233</v>
       </c>
@@ -5138,9 +5415,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="16.5">
+    <row r="195" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A195" s="98"/>
-      <c r="B195" s="104"/>
+      <c r="B195" s="107"/>
       <c r="C195" s="2" t="s">
         <v>236</v>
       </c>
@@ -5157,11 +5434,11 @@
         <v>238</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="16.5">
+    <row r="196" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A196" s="99">
         <v>42494</v>
       </c>
-      <c r="B196" s="104"/>
+      <c r="B196" s="107"/>
       <c r="C196" s="2" t="s">
         <v>239</v>
       </c>
@@ -5176,9 +5453,9 @@
       </c>
       <c r="G196" s="53"/>
     </row>
-    <row r="197" spans="1:7" ht="16.5">
+    <row r="197" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
-      <c r="B197" s="104"/>
+      <c r="B197" s="107"/>
       <c r="C197" s="2" t="s">
         <v>220</v>
       </c>
@@ -5193,9 +5470,9 @@
       </c>
       <c r="G197" s="53"/>
     </row>
-    <row r="198" spans="1:7" ht="16.5">
+    <row r="198" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
-      <c r="B198" s="104"/>
+      <c r="B198" s="107"/>
       <c r="C198" s="2" t="s">
         <v>240</v>
       </c>
@@ -5212,9 +5489,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="16.5">
+    <row r="199" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
-      <c r="B199" s="104"/>
+      <c r="B199" s="107"/>
       <c r="C199" s="2" t="s">
         <v>242</v>
       </c>
@@ -5229,9 +5506,9 @@
       </c>
       <c r="G199" s="53"/>
     </row>
-    <row r="200" spans="1:7" ht="16.5">
+    <row r="200" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A200" s="15"/>
-      <c r="B200" s="104"/>
+      <c r="B200" s="107"/>
       <c r="C200" s="70" t="s">
         <v>233</v>
       </c>
@@ -5248,9 +5525,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="17.25" thickBot="1">
+    <row r="201" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="13"/>
-      <c r="B201" s="105"/>
+      <c r="B201" s="108"/>
       <c r="C201" s="3" t="s">
         <v>214</v>
       </c>
@@ -5265,8 +5542,8 @@
       </c>
       <c r="G201" s="56"/>
     </row>
-    <row r="202" spans="1:7" ht="16.5">
-      <c r="B202" s="103" t="s">
+    <row r="202" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B202" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C202" s="69" t="s">
@@ -5283,9 +5560,9 @@
       </c>
       <c r="G202" s="55"/>
     </row>
-    <row r="203" spans="1:7" ht="16.5">
+    <row r="203" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
-      <c r="B203" s="104"/>
+      <c r="B203" s="107"/>
       <c r="C203" s="2" t="s">
         <v>246</v>
       </c>
@@ -5300,9 +5577,9 @@
       </c>
       <c r="G203" s="53"/>
     </row>
-    <row r="204" spans="1:7" ht="16.5">
+    <row r="204" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A204" s="97"/>
-      <c r="B204" s="104"/>
+      <c r="B204" s="107"/>
       <c r="C204" s="2" t="s">
         <v>247</v>
       </c>
@@ -5317,9 +5594,9 @@
       </c>
       <c r="G204" s="53"/>
     </row>
-    <row r="205" spans="1:7" ht="16.5">
+    <row r="205" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A205" s="97"/>
-      <c r="B205" s="104"/>
+      <c r="B205" s="107"/>
       <c r="C205" s="2" t="s">
         <v>248</v>
       </c>
@@ -5336,9 +5613,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="16.5">
+    <row r="206" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A206" s="97"/>
-      <c r="B206" s="104"/>
+      <c r="B206" s="107"/>
       <c r="C206" s="2" t="s">
         <v>250</v>
       </c>
@@ -5355,11 +5632,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="16.5">
+    <row r="207" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A207" s="14">
         <v>42495</v>
       </c>
-      <c r="B207" s="104"/>
+      <c r="B207" s="107"/>
       <c r="C207" s="2" t="s">
         <v>253</v>
       </c>
@@ -5374,9 +5651,9 @@
       </c>
       <c r="G207" s="53"/>
     </row>
-    <row r="208" spans="1:7" ht="16.5">
+    <row r="208" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
-      <c r="B208" s="104"/>
+      <c r="B208" s="107"/>
       <c r="C208" s="2" t="s">
         <v>248</v>
       </c>
@@ -5391,9 +5668,9 @@
       </c>
       <c r="G208" s="53"/>
     </row>
-    <row r="209" spans="1:7" ht="16.5">
+    <row r="209" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
-      <c r="B209" s="104"/>
+      <c r="B209" s="107"/>
       <c r="C209" s="2" t="s">
         <v>255</v>
       </c>
@@ -5408,9 +5685,9 @@
       </c>
       <c r="G209" s="53"/>
     </row>
-    <row r="210" spans="1:7" ht="16.5">
+    <row r="210" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
-      <c r="B210" s="104"/>
+      <c r="B210" s="107"/>
       <c r="C210" s="2" t="s">
         <v>256</v>
       </c>
@@ -5425,9 +5702,9 @@
       </c>
       <c r="G210" s="53"/>
     </row>
-    <row r="211" spans="1:7" ht="16.5">
+    <row r="211" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
-      <c r="B211" s="104"/>
+      <c r="B211" s="107"/>
       <c r="C211" s="2" t="s">
         <v>222</v>
       </c>
@@ -5442,9 +5719,9 @@
       </c>
       <c r="G211" s="53"/>
     </row>
-    <row r="212" spans="1:7" ht="16.5">
+    <row r="212" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
-      <c r="B212" s="104"/>
+      <c r="B212" s="107"/>
       <c r="C212" s="2" t="s">
         <v>66</v>
       </c>
@@ -5457,9 +5734,9 @@
       <c r="F212" s="2"/>
       <c r="G212" s="53"/>
     </row>
-    <row r="213" spans="1:7" ht="33">
+    <row r="213" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
-      <c r="B213" s="104"/>
+      <c r="B213" s="107"/>
       <c r="C213" s="101" t="s">
         <v>257</v>
       </c>
@@ -5474,9 +5751,9 @@
       </c>
       <c r="G213" s="53"/>
     </row>
-    <row r="214" spans="1:7" ht="17.25" thickBot="1">
+    <row r="214" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="13"/>
-      <c r="B214" s="105"/>
+      <c r="B214" s="108"/>
       <c r="C214" s="3" t="s">
         <v>214</v>
       </c>
@@ -5491,8 +5768,8 @@
       </c>
       <c r="G214" s="56"/>
     </row>
-    <row r="215" spans="1:7" ht="16.5">
-      <c r="B215" s="103" t="s">
+    <row r="215" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B215" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C215" s="69" t="s">
@@ -5507,9 +5784,9 @@
       <c r="F215" s="1"/>
       <c r="G215" s="55"/>
     </row>
-    <row r="216" spans="1:7" ht="16.5">
+    <row r="216" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
-      <c r="B216" s="104"/>
+      <c r="B216" s="107"/>
       <c r="C216" s="2" t="s">
         <v>21</v>
       </c>
@@ -5524,11 +5801,11 @@
       </c>
       <c r="G216" s="53"/>
     </row>
-    <row r="217" spans="1:7" ht="16.5">
+    <row r="217" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A217" s="102">
         <v>42496</v>
       </c>
-      <c r="B217" s="104"/>
+      <c r="B217" s="107"/>
       <c r="C217" s="2" t="s">
         <v>259</v>
       </c>
@@ -5543,9 +5820,9 @@
       </c>
       <c r="G217" s="53"/>
     </row>
-    <row r="218" spans="1:7" ht="16.5">
+    <row r="218" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A218" s="102"/>
-      <c r="B218" s="104"/>
+      <c r="B218" s="107"/>
       <c r="C218" s="2" t="s">
         <v>260</v>
       </c>
@@ -5562,9 +5839,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="16.5">
+    <row r="219" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A219" s="102"/>
-      <c r="B219" s="104"/>
+      <c r="B219" s="107"/>
       <c r="C219" s="2" t="s">
         <v>262</v>
       </c>
@@ -5579,9 +5856,9 @@
       </c>
       <c r="G219" s="53"/>
     </row>
-    <row r="220" spans="1:7" ht="16.5">
+    <row r="220" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A220" s="102"/>
-      <c r="B220" s="104"/>
+      <c r="B220" s="107"/>
       <c r="C220" s="2" t="s">
         <v>268</v>
       </c>
@@ -5598,9 +5875,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="16.5">
+    <row r="221" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A221" s="102"/>
-      <c r="B221" s="104"/>
+      <c r="B221" s="107"/>
       <c r="C221" s="2" t="s">
         <v>269</v>
       </c>
@@ -5615,9 +5892,9 @@
       </c>
       <c r="G221" s="53"/>
     </row>
-    <row r="222" spans="1:7" ht="16.5">
+    <row r="222" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
-      <c r="B222" s="104"/>
+      <c r="B222" s="107"/>
       <c r="C222" s="2" t="s">
         <v>264</v>
       </c>
@@ -5632,9 +5909,9 @@
       </c>
       <c r="G222" s="53"/>
     </row>
-    <row r="223" spans="1:7" ht="16.5">
+    <row r="223" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
-      <c r="B223" s="104"/>
+      <c r="B223" s="107"/>
       <c r="C223" s="2" t="s">
         <v>267</v>
       </c>
@@ -5649,9 +5926,9 @@
       </c>
       <c r="G223" s="53"/>
     </row>
-    <row r="224" spans="1:7" ht="16.5">
+    <row r="224" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
-      <c r="B224" s="104"/>
+      <c r="B224" s="107"/>
       <c r="C224" s="2" t="s">
         <v>272</v>
       </c>
@@ -5668,9 +5945,9 @@
         <v>271</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="16.5">
+    <row r="225" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
-      <c r="B225" s="104"/>
+      <c r="B225" s="107"/>
       <c r="C225" s="2" t="s">
         <v>273</v>
       </c>
@@ -5687,9 +5964,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="16.5">
+    <row r="226" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
-      <c r="B226" s="104"/>
+      <c r="B226" s="107"/>
       <c r="C226" s="2" t="s">
         <v>258</v>
       </c>
@@ -5704,9 +5981,9 @@
       </c>
       <c r="G226" s="53"/>
     </row>
-    <row r="227" spans="1:7" ht="17.25" thickBot="1">
+    <row r="227" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="13"/>
-      <c r="B227" s="105"/>
+      <c r="B227" s="108"/>
       <c r="C227" s="3" t="s">
         <v>37</v>
       </c>
@@ -5723,8 +6000,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="16.5">
-      <c r="B228" s="103" t="s">
+    <row r="228" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B228" s="109" t="s">
         <v>7</v>
       </c>
       <c r="C228" s="69" t="s">
@@ -5739,9 +6016,9 @@
       <c r="F228" s="1"/>
       <c r="G228" s="55"/>
     </row>
-    <row r="229" spans="1:7" ht="16.5">
+    <row r="229" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
-      <c r="B229" s="104"/>
+      <c r="B229" s="107"/>
       <c r="C229" s="2" t="s">
         <v>220</v>
       </c>
@@ -5756,11 +6033,11 @@
       </c>
       <c r="G229" s="53"/>
     </row>
-    <row r="230" spans="1:7" ht="16.5">
+    <row r="230" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A230" s="14">
         <v>42497</v>
       </c>
-      <c r="B230" s="104"/>
+      <c r="B230" s="107"/>
       <c r="C230" s="2" t="s">
         <v>278</v>
       </c>
@@ -5773,9 +6050,9 @@
       <c r="F230" s="2"/>
       <c r="G230" s="53"/>
     </row>
-    <row r="231" spans="1:7" ht="16.5">
+    <row r="231" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
-      <c r="B231" s="104"/>
+      <c r="B231" s="107"/>
       <c r="C231" s="2" t="s">
         <v>279</v>
       </c>
@@ -5790,29 +6067,29 @@
       </c>
       <c r="G231" s="53"/>
     </row>
-    <row r="232" spans="1:7" ht="16.5">
+    <row r="232" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A232" s="11"/>
-      <c r="B232" s="104"/>
+      <c r="B232" s="107"/>
       <c r="C232" s="1"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="1"/>
       <c r="G232" s="53"/>
     </row>
-    <row r="233" spans="1:7" ht="17.25" thickBot="1">
+    <row r="233" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="13"/>
-      <c r="B233" s="105"/>
+      <c r="B233" s="108"/>
       <c r="C233" s="3"/>
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
       <c r="F233" s="3"/>
       <c r="G233" s="56"/>
     </row>
-    <row r="234" spans="1:7" ht="16.5">
-      <c r="A234" s="112">
+    <row r="234" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A234" s="103">
         <v>42499</v>
       </c>
-      <c r="B234" s="115" t="s">
+      <c r="B234" s="106" t="s">
         <v>7</v>
       </c>
       <c r="C234" s="69" t="s">
@@ -5827,9 +6104,9 @@
       <c r="F234" s="1"/>
       <c r="G234" s="55"/>
     </row>
-    <row r="235" spans="1:7" ht="16.5">
-      <c r="A235" s="113"/>
-      <c r="B235" s="104"/>
+    <row r="235" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A235" s="104"/>
+      <c r="B235" s="107"/>
       <c r="C235" s="2" t="s">
         <v>285</v>
       </c>
@@ -5844,9 +6121,9 @@
       </c>
       <c r="G235" s="53"/>
     </row>
-    <row r="236" spans="1:7" ht="16.5">
-      <c r="A236" s="113"/>
-      <c r="B236" s="104"/>
+    <row r="236" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A236" s="104"/>
+      <c r="B236" s="107"/>
       <c r="C236" s="2" t="s">
         <v>220</v>
       </c>
@@ -5861,9 +6138,9 @@
       </c>
       <c r="G236" s="53"/>
     </row>
-    <row r="237" spans="1:7" ht="16.5">
-      <c r="A237" s="113"/>
-      <c r="B237" s="104"/>
+    <row r="237" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A237" s="104"/>
+      <c r="B237" s="107"/>
       <c r="C237" s="2" t="s">
         <v>212</v>
       </c>
@@ -5878,9 +6155,9 @@
       </c>
       <c r="G237" s="2"/>
     </row>
-    <row r="238" spans="1:7" ht="16.5">
-      <c r="A238" s="113"/>
-      <c r="B238" s="104"/>
+    <row r="238" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A238" s="104"/>
+      <c r="B238" s="107"/>
       <c r="C238" s="1" t="s">
         <v>290</v>
       </c>
@@ -5895,9 +6172,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="16.5">
-      <c r="A239" s="113"/>
-      <c r="B239" s="104"/>
+    <row r="239" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A239" s="104"/>
+      <c r="B239" s="107"/>
       <c r="C239" s="1" t="s">
         <v>212</v>
       </c>
@@ -5912,9 +6189,9 @@
       </c>
       <c r="G239" s="53"/>
     </row>
-    <row r="240" spans="1:7" ht="16.5">
-      <c r="A240" s="113"/>
-      <c r="B240" s="104"/>
+    <row r="240" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A240" s="104"/>
+      <c r="B240" s="107"/>
       <c r="C240" s="1" t="s">
         <v>212</v>
       </c>
@@ -5931,9 +6208,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="16.5">
-      <c r="A241" s="113"/>
-      <c r="B241" s="104"/>
+    <row r="241" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A241" s="104"/>
+      <c r="B241" s="107"/>
       <c r="C241" s="1" t="s">
         <v>294</v>
       </c>
@@ -5948,9 +6225,9 @@
       </c>
       <c r="G241" s="53"/>
     </row>
-    <row r="242" spans="1:7" ht="16.5">
-      <c r="A242" s="113"/>
-      <c r="B242" s="104"/>
+    <row r="242" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A242" s="104"/>
+      <c r="B242" s="107"/>
       <c r="C242" s="2" t="s">
         <v>220</v>
       </c>
@@ -5965,9 +6242,9 @@
       </c>
       <c r="G242" s="53"/>
     </row>
-    <row r="243" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A243" s="114"/>
-      <c r="B243" s="105"/>
+    <row r="243" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="105"/>
+      <c r="B243" s="108"/>
       <c r="C243" s="66" t="s">
         <v>191</v>
       </c>
@@ -5982,8 +6259,8 @@
       </c>
       <c r="G243" s="56"/>
     </row>
-    <row r="244" spans="1:7" ht="16.5">
-      <c r="B244" s="104" t="s">
+    <row r="244" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B244" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C244" s="69" t="s">
@@ -6000,9 +6277,9 @@
       </c>
       <c r="G244" s="55"/>
     </row>
-    <row r="245" spans="1:7" ht="16.5">
+    <row r="245" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A245" s="11"/>
-      <c r="B245" s="104"/>
+      <c r="B245" s="107"/>
       <c r="C245" s="2" t="s">
         <v>283</v>
       </c>
@@ -6017,9 +6294,9 @@
       </c>
       <c r="G245" s="53"/>
     </row>
-    <row r="246" spans="1:7" ht="16.5">
+    <row r="246" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A246" s="97"/>
-      <c r="B246" s="104"/>
+      <c r="B246" s="107"/>
       <c r="C246" s="2" t="s">
         <v>284</v>
       </c>
@@ -6034,9 +6311,9 @@
       </c>
       <c r="G246" s="53"/>
     </row>
-    <row r="247" spans="1:7" ht="16.5">
+    <row r="247" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A247" s="97"/>
-      <c r="B247" s="104"/>
+      <c r="B247" s="107"/>
       <c r="C247" s="2" t="s">
         <v>283</v>
       </c>
@@ -6051,11 +6328,11 @@
       </c>
       <c r="G247" s="53"/>
     </row>
-    <row r="248" spans="1:7" ht="16.5">
+    <row r="248" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A248" s="14">
         <v>42500</v>
       </c>
-      <c r="B248" s="104"/>
+      <c r="B248" s="107"/>
       <c r="C248" s="1" t="s">
         <v>285</v>
       </c>
@@ -6070,9 +6347,9 @@
       </c>
       <c r="G248" s="53"/>
     </row>
-    <row r="249" spans="1:7" ht="16.5">
+    <row r="249" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A249" s="11"/>
-      <c r="B249" s="104"/>
+      <c r="B249" s="107"/>
       <c r="C249" s="1" t="s">
         <v>191</v>
       </c>
@@ -6087,9 +6364,9 @@
       </c>
       <c r="G249" s="53"/>
     </row>
-    <row r="250" spans="1:7" ht="16.5">
+    <row r="250" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A250" s="11"/>
-      <c r="B250" s="104"/>
+      <c r="B250" s="107"/>
       <c r="C250" s="1" t="s">
         <v>288</v>
       </c>
@@ -6104,9 +6381,9 @@
       </c>
       <c r="G250" s="53"/>
     </row>
-    <row r="251" spans="1:7" ht="16.5">
+    <row r="251" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A251" s="11"/>
-      <c r="B251" s="104"/>
+      <c r="B251" s="107"/>
       <c r="C251" s="1" t="s">
         <v>283</v>
       </c>
@@ -6121,9 +6398,9 @@
       </c>
       <c r="G251" s="53"/>
     </row>
-    <row r="252" spans="1:7" ht="17.25" thickBot="1">
+    <row r="252" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="13"/>
-      <c r="B252" s="104"/>
+      <c r="B252" s="107"/>
       <c r="C252" s="3" t="s">
         <v>191</v>
       </c>
@@ -6138,1307 +6415,1854 @@
       </c>
       <c r="G252" s="56"/>
     </row>
-    <row r="253" spans="1:7" ht="16.5">
-      <c r="B253" s="103" t="s">
+    <row r="253" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B253" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
-      <c r="F253" s="1"/>
+      <c r="C253" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E253" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F253" s="116" t="s">
+        <v>0</v>
+      </c>
       <c r="G253" s="55"/>
     </row>
-    <row r="254" spans="1:7" ht="16.5">
+    <row r="254" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A254" s="11"/>
-      <c r="B254" s="104"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="4"/>
-      <c r="E254" s="4"/>
-      <c r="F254" s="2"/>
+      <c r="B254" s="107"/>
+      <c r="C254" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F254" s="117" t="s">
+        <v>86</v>
+      </c>
       <c r="G254" s="53"/>
     </row>
-    <row r="255" spans="1:7" ht="16.5">
-      <c r="B255" s="104"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="4"/>
-      <c r="E255" s="4"/>
-      <c r="F255" s="2"/>
+    <row r="255" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A255" s="97"/>
+      <c r="B255" s="107"/>
+      <c r="C255" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F255" s="117" t="s">
+        <v>86</v>
+      </c>
       <c r="G255" s="53"/>
     </row>
-    <row r="256" spans="1:7" ht="16.5">
-      <c r="A256" s="11">
+    <row r="256" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A256" s="97"/>
+      <c r="B256" s="107"/>
+      <c r="C256" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F256" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="G256" s="53"/>
+    </row>
+    <row r="257" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B257" s="107"/>
+      <c r="C257" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E257" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F257" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G257" s="53"/>
+    </row>
+    <row r="258" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B258" s="107"/>
+      <c r="C258" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F258" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G258" s="53"/>
+    </row>
+    <row r="259" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A259" s="11">
         <v>42501</v>
       </c>
-      <c r="B256" s="104"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="4"/>
-      <c r="E256" s="4"/>
-      <c r="F256" s="2"/>
-      <c r="G256" s="53"/>
-    </row>
-    <row r="257" spans="1:7" ht="16.5">
-      <c r="A257" s="11"/>
-      <c r="B257" s="104"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="4"/>
-      <c r="E257" s="4"/>
-      <c r="F257" s="2"/>
-      <c r="G257" s="53"/>
-    </row>
-    <row r="258" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A258" s="13"/>
-      <c r="B258" s="105"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="56"/>
-    </row>
-    <row r="259" spans="1:7" ht="16.5">
-      <c r="B259" s="103"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="1"/>
-      <c r="G259" s="55"/>
-    </row>
-    <row r="260" spans="1:7" ht="16.5">
+      <c r="B259" s="107"/>
+      <c r="C259" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G259" s="53"/>
+    </row>
+    <row r="260" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A260" s="11"/>
-      <c r="B260" s="104"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="4"/>
-      <c r="F260" s="2"/>
+      <c r="B260" s="107"/>
+      <c r="C260" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F260" s="116" t="s">
+        <v>0</v>
+      </c>
       <c r="G260" s="53"/>
     </row>
-    <row r="261" spans="1:7" ht="16.5">
-      <c r="B261" s="104"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="4"/>
-      <c r="E261" s="4"/>
-      <c r="F261" s="2"/>
+    <row r="261" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A261" s="11"/>
+      <c r="B261" s="107"/>
+      <c r="C261" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F261" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G261" s="53"/>
     </row>
-    <row r="262" spans="1:7" ht="16.5">
-      <c r="A262" s="11"/>
-      <c r="B262" s="104"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="4"/>
-      <c r="E262" s="4"/>
-      <c r="F262" s="2"/>
-      <c r="G262" s="53"/>
-    </row>
-    <row r="263" spans="1:7" ht="16.5">
-      <c r="A263" s="11"/>
-      <c r="B263" s="104"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="4"/>
-      <c r="F263" s="2"/>
-      <c r="G263" s="53"/>
-    </row>
-    <row r="264" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A264" s="13"/>
-      <c r="B264" s="105"/>
-      <c r="C264" s="3"/>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="56"/>
-    </row>
-    <row r="265" spans="1:7" ht="16.5">
-      <c r="B265" s="103"/>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="1"/>
-      <c r="G265" s="55"/>
-    </row>
-    <row r="266" spans="1:7" ht="16.5">
+    <row r="262" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="13"/>
+      <c r="B262" s="108"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="56"/>
+    </row>
+    <row r="263" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B263" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="69" t="s">
+        <v>295</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E263" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F263" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G263" s="55"/>
+    </row>
+    <row r="264" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A264" s="11"/>
+      <c r="B264" s="107"/>
+      <c r="C264" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F264" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="G264" s="53"/>
+    </row>
+    <row r="265" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A265" s="11">
+        <v>42502</v>
+      </c>
+      <c r="B265" s="107"/>
+      <c r="C265" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F265" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G265" s="53"/>
+    </row>
+    <row r="266" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A266" s="11"/>
-      <c r="B266" s="104"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="4"/>
-      <c r="E266" s="4"/>
-      <c r="F266" s="2"/>
+      <c r="B266" s="107"/>
+      <c r="C266" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F266" s="117" t="s">
+        <v>86</v>
+      </c>
       <c r="G266" s="53"/>
     </row>
-    <row r="267" spans="1:7" ht="16.5">
-      <c r="B267" s="104"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="4"/>
-      <c r="E267" s="4"/>
-      <c r="F267" s="2"/>
+    <row r="267" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A267" s="11"/>
+      <c r="B267" s="107"/>
+      <c r="C267" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E267" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F267" s="116"/>
       <c r="G267" s="53"/>
     </row>
-    <row r="268" spans="1:7" ht="16.5">
+    <row r="268" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A268" s="11"/>
-      <c r="B268" s="104"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="4"/>
-      <c r="E268" s="4"/>
-      <c r="F268" s="2"/>
+      <c r="B268" s="107"/>
+      <c r="C268" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E268" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F268" s="116" t="s">
+        <v>0</v>
+      </c>
       <c r="G268" s="53"/>
     </row>
-    <row r="269" spans="1:7" ht="16.5">
+    <row r="269" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A269" s="11"/>
-      <c r="B269" s="104"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="4"/>
-      <c r="E269" s="4"/>
-      <c r="F269" s="2"/>
+      <c r="B269" s="107"/>
+      <c r="C269" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E269" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F269" s="116" t="s">
+        <v>0</v>
+      </c>
       <c r="G269" s="53"/>
     </row>
-    <row r="270" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A270" s="13"/>
-      <c r="B270" s="105"/>
-      <c r="C270" s="3"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="56"/>
-    </row>
-    <row r="271" spans="1:7" ht="16.5">
-      <c r="B271" s="103"/>
-      <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
-      <c r="F271" s="1"/>
-      <c r="G271" s="55"/>
-    </row>
-    <row r="272" spans="1:7" ht="16.5">
-      <c r="A272" s="11"/>
-      <c r="B272" s="104"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="4"/>
-      <c r="E272" s="4"/>
-      <c r="F272" s="2"/>
-      <c r="G272" s="53"/>
-    </row>
-    <row r="273" spans="1:7" ht="16.5">
-      <c r="B273" s="104"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="4"/>
-      <c r="E273" s="4"/>
-      <c r="F273" s="2"/>
+    <row r="270" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A270" s="11"/>
+      <c r="B270" s="107"/>
+      <c r="C270" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E270" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F270" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G270" s="53"/>
+    </row>
+    <row r="271" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="13"/>
+      <c r="B271" s="108"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="56"/>
+    </row>
+    <row r="272" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B272" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="69" t="s">
+        <v>307</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E272" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F272" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G272" s="55"/>
+    </row>
+    <row r="273" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A273" s="11"/>
+      <c r="B273" s="107"/>
+      <c r="C273" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F273" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G273" s="53"/>
     </row>
-    <row r="274" spans="1:7" ht="16.5">
-      <c r="A274" s="11"/>
-      <c r="B274" s="104"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="4"/>
-      <c r="E274" s="4"/>
-      <c r="F274" s="2"/>
+    <row r="274" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A274" s="97"/>
+      <c r="B274" s="107"/>
+      <c r="C274" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F274" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G274" s="53"/>
     </row>
-    <row r="275" spans="1:7" ht="16.5">
+    <row r="275" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A275" s="11"/>
-      <c r="B275" s="104"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="4"/>
-      <c r="E275" s="4"/>
-      <c r="F275" s="2"/>
+      <c r="B275" s="107"/>
+      <c r="C275" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F275" s="117"/>
       <c r="G275" s="53"/>
     </row>
-    <row r="276" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A276" s="13"/>
-      <c r="B276" s="105"/>
-      <c r="C276" s="3"/>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="56"/>
-    </row>
-    <row r="277" spans="1:7" ht="16.5">
-      <c r="B277" s="103"/>
-      <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
-      <c r="F277" s="1"/>
-      <c r="G277" s="55"/>
-    </row>
-    <row r="278" spans="1:7" ht="16.5">
-      <c r="A278" s="11"/>
-      <c r="B278" s="104"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="4"/>
-      <c r="E278" s="4"/>
-      <c r="F278" s="2"/>
+    <row r="276" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A276" s="11"/>
+      <c r="B276" s="107"/>
+      <c r="C276" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F276" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="G276" s="53"/>
+    </row>
+    <row r="277" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A277" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B277" s="107"/>
+      <c r="C277" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G277" s="53"/>
+    </row>
+    <row r="278" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A278" s="97"/>
+      <c r="B278" s="107"/>
+      <c r="C278" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F278" s="116" t="s">
+        <v>86</v>
+      </c>
       <c r="G278" s="53"/>
     </row>
-    <row r="279" spans="1:7" ht="16.5">
-      <c r="B279" s="104"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="4"/>
-      <c r="E279" s="4"/>
-      <c r="F279" s="2"/>
+    <row r="279" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A279" s="11"/>
+      <c r="B279" s="107"/>
+      <c r="C279" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" s="116" t="s">
+        <v>86</v>
+      </c>
       <c r="G279" s="53"/>
     </row>
-    <row r="280" spans="1:7" ht="16.5">
-      <c r="A280" s="11"/>
-      <c r="B280" s="104"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="4"/>
-      <c r="E280" s="4"/>
-      <c r="F280" s="2"/>
+    <row r="280" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B280" s="107"/>
+      <c r="C280" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F280" s="117"/>
       <c r="G280" s="53"/>
     </row>
-    <row r="281" spans="1:7" ht="16.5">
+    <row r="281" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A281" s="11"/>
-      <c r="B281" s="104"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="4"/>
-      <c r="E281" s="4"/>
-      <c r="F281" s="2"/>
+      <c r="B281" s="107"/>
+      <c r="C281" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F281" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G281" s="53"/>
     </row>
-    <row r="282" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A282" s="13"/>
-      <c r="B282" s="105"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="56"/>
-    </row>
-    <row r="283" spans="1:7" ht="16.5">
-      <c r="B283" s="103"/>
-      <c r="D283" s="5"/>
-      <c r="E283" s="5"/>
-      <c r="F283" s="1"/>
-      <c r="G283" s="55"/>
-    </row>
-    <row r="284" spans="1:7" ht="16.5">
-      <c r="A284" s="11"/>
-      <c r="B284" s="104"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="4"/>
-      <c r="E284" s="4"/>
-      <c r="F284" s="2"/>
-      <c r="G284" s="53"/>
-    </row>
-    <row r="285" spans="1:7" ht="16.5">
-      <c r="B285" s="104"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="4"/>
-      <c r="E285" s="4"/>
-      <c r="F285" s="2"/>
-      <c r="G285" s="53"/>
-    </row>
-    <row r="286" spans="1:7" ht="16.5">
+    <row r="282" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A282" s="11"/>
+      <c r="B282" s="107"/>
+      <c r="C282" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F282" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G282" s="53"/>
+    </row>
+    <row r="283" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A283" s="11"/>
+      <c r="B283" s="107"/>
+      <c r="C283" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F283" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G283" s="53"/>
+    </row>
+    <row r="284" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="13"/>
+      <c r="B284" s="108"/>
+      <c r="C284" s="66" t="s">
+        <v>316</v>
+      </c>
+      <c r="D284" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="E284" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F284" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="G284" s="56"/>
+    </row>
+    <row r="285" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B285" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F285" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G285" s="55"/>
+    </row>
+    <row r="286" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A286" s="11"/>
-      <c r="B286" s="104"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="4"/>
-      <c r="E286" s="4"/>
-      <c r="F286" s="2"/>
+      <c r="B286" s="107"/>
+      <c r="C286" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F286" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G286" s="53"/>
     </row>
-    <row r="287" spans="1:7" ht="16.5">
-      <c r="A287" s="11"/>
-      <c r="B287" s="104"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="4"/>
-      <c r="E287" s="4"/>
-      <c r="F287" s="2"/>
+    <row r="287" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B287" s="107"/>
+      <c r="C287" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F287" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G287" s="53"/>
     </row>
-    <row r="288" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A288" s="13"/>
-      <c r="B288" s="105"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="56"/>
-    </row>
-    <row r="289" spans="1:7" ht="16.5">
-      <c r="B289" s="103"/>
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
-      <c r="F289" s="1"/>
-      <c r="G289" s="55"/>
-    </row>
-    <row r="290" spans="1:7" ht="16.5">
-      <c r="A290" s="11"/>
-      <c r="B290" s="104"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="4"/>
-      <c r="E290" s="4"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="53"/>
-    </row>
-    <row r="291" spans="1:7" ht="16.5">
-      <c r="B291" s="104"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="4"/>
-      <c r="E291" s="4"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="53"/>
-    </row>
-    <row r="292" spans="1:7" ht="16.5">
-      <c r="A292" s="11"/>
-      <c r="B292" s="104"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="4"/>
-      <c r="E292" s="4"/>
-      <c r="F292" s="2"/>
+    <row r="288" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A288" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B288" s="107"/>
+      <c r="C288" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F288" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="G288" s="53"/>
+    </row>
+    <row r="289" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A289" s="11"/>
+      <c r="B289" s="107"/>
+      <c r="C289" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F289" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G289" s="53"/>
+    </row>
+    <row r="290" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="13"/>
+      <c r="B290" s="108"/>
+      <c r="C290" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F290" s="119"/>
+      <c r="G290" s="56"/>
+    </row>
+    <row r="291" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B291" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E291" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F291" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G291" s="55"/>
+    </row>
+    <row r="292" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A292" s="120"/>
+      <c r="B292" s="107"/>
+      <c r="C292" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G292" s="53"/>
     </row>
-    <row r="293" spans="1:7" ht="16.5">
-      <c r="A293" s="11"/>
-      <c r="B293" s="104"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="4"/>
-      <c r="E293" s="4"/>
-      <c r="F293" s="2"/>
+    <row r="293" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A293" s="121"/>
+      <c r="B293" s="107"/>
+      <c r="C293" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F293" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G293" s="53"/>
     </row>
-    <row r="294" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A294" s="13"/>
-      <c r="B294" s="105"/>
-      <c r="C294" s="3"/>
-      <c r="D294" s="6"/>
-      <c r="E294" s="6"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="56"/>
-    </row>
-    <row r="295" spans="1:7" ht="16.5">
-      <c r="B295" s="103"/>
-      <c r="D295" s="5"/>
-      <c r="E295" s="5"/>
-      <c r="F295" s="1"/>
-      <c r="G295" s="55"/>
-    </row>
-    <row r="296" spans="1:7" ht="16.5">
-      <c r="A296" s="11"/>
-      <c r="B296" s="104"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="4"/>
-      <c r="E296" s="4"/>
-      <c r="F296" s="2"/>
+    <row r="294" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A294" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B294" s="107"/>
+      <c r="C294" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F294" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G294" s="53"/>
+    </row>
+    <row r="295" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A295" s="122"/>
+      <c r="B295" s="107"/>
+      <c r="C295" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D295" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F295" s="117" t="s">
+        <v>86</v>
+      </c>
+      <c r="G295" s="53"/>
+    </row>
+    <row r="296" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A296" s="122"/>
+      <c r="B296" s="107"/>
+      <c r="C296" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F296" s="117"/>
       <c r="G296" s="53"/>
     </row>
-    <row r="297" spans="1:7" ht="16.5">
-      <c r="B297" s="104"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="4"/>
-      <c r="E297" s="4"/>
-      <c r="F297" s="2"/>
-      <c r="G297" s="53"/>
-    </row>
-    <row r="298" spans="1:7" ht="16.5">
-      <c r="A298" s="11"/>
-      <c r="B298" s="104"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="4"/>
-      <c r="E298" s="4"/>
-      <c r="F298" s="2"/>
-      <c r="G298" s="53"/>
-    </row>
-    <row r="299" spans="1:7" ht="16.5">
+    <row r="297" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="123"/>
+      <c r="B297" s="108"/>
+      <c r="C297" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="D297" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="E297" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F297" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="G297" s="56"/>
+    </row>
+    <row r="298" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B298" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="69" t="s">
+        <v>336</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E298" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F298" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="G298" s="55"/>
+    </row>
+    <row r="299" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A299" s="11"/>
-      <c r="B299" s="104"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="4"/>
-      <c r="E299" s="4"/>
-      <c r="F299" s="2"/>
+      <c r="B299" s="107"/>
+      <c r="C299" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F299" s="117" t="s">
+        <v>86</v>
+      </c>
       <c r="G299" s="53"/>
     </row>
-    <row r="300" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A300" s="13"/>
-      <c r="B300" s="105"/>
-      <c r="C300" s="3"/>
-      <c r="D300" s="6"/>
-      <c r="E300" s="6"/>
-      <c r="F300" s="3"/>
-      <c r="G300" s="56"/>
-    </row>
-    <row r="301" spans="1:7" ht="16.5">
-      <c r="B301" s="103"/>
-      <c r="D301" s="5"/>
-      <c r="E301" s="5"/>
-      <c r="F301" s="1"/>
-      <c r="G301" s="55"/>
-    </row>
-    <row r="302" spans="1:7" ht="16.5">
+    <row r="300" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A300" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B300" s="107"/>
+      <c r="C300" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F300" s="117"/>
+      <c r="G300" s="53"/>
+    </row>
+    <row r="301" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A301" s="11"/>
+      <c r="B301" s="107"/>
+      <c r="C301" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F301" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="G301" s="53"/>
+    </row>
+    <row r="302" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A302" s="11"/>
-      <c r="B302" s="104"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="4"/>
-      <c r="E302" s="4"/>
-      <c r="F302" s="2"/>
+      <c r="B302" s="107"/>
+      <c r="C302" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F302" s="117" t="s">
+        <v>0</v>
+      </c>
       <c r="G302" s="53"/>
     </row>
-    <row r="303" spans="1:7" ht="16.5">
-      <c r="B303" s="104"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="4"/>
-      <c r="E303" s="4"/>
-      <c r="F303" s="2"/>
-      <c r="G303" s="53"/>
-    </row>
-    <row r="304" spans="1:7" ht="16.5">
-      <c r="A304" s="11"/>
-      <c r="B304" s="104"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="4"/>
-      <c r="E304" s="4"/>
-      <c r="F304" s="2"/>
-      <c r="G304" s="53"/>
-    </row>
-    <row r="305" spans="1:7" ht="16.5">
+    <row r="303" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="13"/>
+      <c r="B303" s="108"/>
+      <c r="C303" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F303" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="G303" s="56"/>
+    </row>
+    <row r="304" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B304" s="109"/>
+      <c r="D304" s="5"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="1"/>
+      <c r="G304" s="55"/>
+    </row>
+    <row r="305" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A305" s="11"/>
-      <c r="B305" s="104"/>
+      <c r="B305" s="107"/>
       <c r="C305" s="2"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="2"/>
       <c r="G305" s="53"/>
     </row>
-    <row r="306" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A306" s="13"/>
-      <c r="B306" s="105"/>
-      <c r="C306" s="3"/>
-      <c r="D306" s="6"/>
-      <c r="E306" s="6"/>
-      <c r="F306" s="3"/>
-      <c r="G306" s="56"/>
-    </row>
-    <row r="307" spans="1:7" ht="16.5">
-      <c r="B307" s="103"/>
-      <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
-      <c r="F307" s="1"/>
-      <c r="G307" s="55"/>
-    </row>
-    <row r="308" spans="1:7" ht="16.5">
+    <row r="306" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B306" s="107"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="4"/>
+      <c r="E306" s="4"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="53"/>
+    </row>
+    <row r="307" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A307" s="11"/>
+      <c r="B307" s="107"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="53"/>
+    </row>
+    <row r="308" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A308" s="11"/>
-      <c r="B308" s="104"/>
+      <c r="B308" s="107"/>
       <c r="C308" s="2"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="2"/>
       <c r="G308" s="53"/>
     </row>
-    <row r="309" spans="1:7" ht="16.5">
-      <c r="B309" s="104"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="4"/>
-      <c r="F309" s="2"/>
-      <c r="G309" s="53"/>
-    </row>
-    <row r="310" spans="1:7" ht="16.5">
-      <c r="A310" s="11"/>
-      <c r="B310" s="104"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="4"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="53"/>
-    </row>
-    <row r="311" spans="1:7" ht="16.5">
+    <row r="309" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="13"/>
+      <c r="B309" s="108"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="6"/>
+      <c r="E309" s="6"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="56"/>
+    </row>
+    <row r="310" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B310" s="109"/>
+      <c r="D310" s="5"/>
+      <c r="E310" s="5"/>
+      <c r="F310" s="1"/>
+      <c r="G310" s="55"/>
+    </row>
+    <row r="311" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A311" s="11"/>
-      <c r="B311" s="104"/>
+      <c r="B311" s="107"/>
       <c r="C311" s="2"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="2"/>
       <c r="G311" s="53"/>
     </row>
-    <row r="312" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A312" s="13"/>
-      <c r="B312" s="105"/>
-      <c r="C312" s="3"/>
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="56"/>
-    </row>
-    <row r="313" spans="1:7" ht="16.5">
-      <c r="B313" s="103"/>
-      <c r="D313" s="5"/>
-      <c r="E313" s="5"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="55"/>
-    </row>
-    <row r="314" spans="1:7" ht="16.5">
+    <row r="312" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B312" s="107"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="53"/>
+    </row>
+    <row r="313" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A313" s="11"/>
+      <c r="B313" s="107"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="53"/>
+    </row>
+    <row r="314" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A314" s="11"/>
-      <c r="B314" s="104"/>
+      <c r="B314" s="107"/>
       <c r="C314" s="2"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="2"/>
       <c r="G314" s="53"/>
     </row>
-    <row r="315" spans="1:7" ht="16.5">
-      <c r="B315" s="104"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="4"/>
-      <c r="F315" s="2"/>
-      <c r="G315" s="53"/>
-    </row>
-    <row r="316" spans="1:7" ht="16.5">
-      <c r="A316" s="11"/>
-      <c r="B316" s="104"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="4"/>
-      <c r="F316" s="2"/>
-      <c r="G316" s="53"/>
-    </row>
-    <row r="317" spans="1:7" ht="16.5">
+    <row r="315" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="13"/>
+      <c r="B315" s="108"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="6"/>
+      <c r="E315" s="6"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="56"/>
+    </row>
+    <row r="316" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B316" s="109"/>
+      <c r="D316" s="5"/>
+      <c r="E316" s="5"/>
+      <c r="F316" s="1"/>
+      <c r="G316" s="55"/>
+    </row>
+    <row r="317" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A317" s="11"/>
-      <c r="B317" s="104"/>
+      <c r="B317" s="107"/>
       <c r="C317" s="2"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="2"/>
       <c r="G317" s="53"/>
     </row>
-    <row r="318" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A318" s="13"/>
-      <c r="B318" s="105"/>
-      <c r="C318" s="3"/>
-      <c r="D318" s="6"/>
-      <c r="E318" s="6"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="56"/>
-    </row>
-    <row r="319" spans="1:7" ht="16.5">
-      <c r="B319" s="103"/>
-      <c r="D319" s="5"/>
-      <c r="E319" s="5"/>
-      <c r="F319" s="1"/>
-      <c r="G319" s="55"/>
-    </row>
-    <row r="320" spans="1:7" ht="16.5">
+    <row r="318" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B318" s="107"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="53"/>
+    </row>
+    <row r="319" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A319" s="11"/>
+      <c r="B319" s="107"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="4"/>
+      <c r="E319" s="4"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="53"/>
+    </row>
+    <row r="320" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A320" s="11"/>
-      <c r="B320" s="104"/>
+      <c r="B320" s="107"/>
       <c r="C320" s="2"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="2"/>
       <c r="G320" s="53"/>
     </row>
-    <row r="321" spans="1:7" ht="16.5">
-      <c r="B321" s="104"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="4"/>
-      <c r="F321" s="2"/>
-      <c r="G321" s="53"/>
-    </row>
-    <row r="322" spans="1:7" ht="16.5">
-      <c r="A322" s="11"/>
-      <c r="B322" s="104"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="4"/>
-      <c r="F322" s="2"/>
-      <c r="G322" s="53"/>
-    </row>
-    <row r="323" spans="1:7" ht="16.5">
+    <row r="321" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="13"/>
+      <c r="B321" s="108"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="6"/>
+      <c r="E321" s="6"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="56"/>
+    </row>
+    <row r="322" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B322" s="109"/>
+      <c r="D322" s="5"/>
+      <c r="E322" s="5"/>
+      <c r="F322" s="1"/>
+      <c r="G322" s="55"/>
+    </row>
+    <row r="323" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A323" s="11"/>
-      <c r="B323" s="104"/>
+      <c r="B323" s="107"/>
       <c r="C323" s="2"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="2"/>
       <c r="G323" s="53"/>
     </row>
-    <row r="324" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A324" s="13"/>
-      <c r="B324" s="105"/>
-      <c r="C324" s="3"/>
-      <c r="D324" s="6"/>
-      <c r="E324" s="6"/>
-      <c r="F324" s="3"/>
-      <c r="G324" s="56"/>
-    </row>
-    <row r="325" spans="1:7" ht="16.5">
-      <c r="B325" s="103"/>
-      <c r="D325" s="5"/>
-      <c r="E325" s="5"/>
-      <c r="F325" s="1"/>
-      <c r="G325" s="55"/>
-    </row>
-    <row r="326" spans="1:7" ht="16.5">
+    <row r="324" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B324" s="107"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="53"/>
+    </row>
+    <row r="325" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A325" s="11"/>
+      <c r="B325" s="107"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="53"/>
+    </row>
+    <row r="326" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A326" s="11"/>
-      <c r="B326" s="104"/>
+      <c r="B326" s="107"/>
       <c r="C326" s="2"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="2"/>
       <c r="G326" s="53"/>
     </row>
-    <row r="327" spans="1:7" ht="16.5">
-      <c r="B327" s="104"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="4"/>
-      <c r="F327" s="2"/>
-      <c r="G327" s="53"/>
-    </row>
-    <row r="328" spans="1:7" ht="16.5">
-      <c r="A328" s="11"/>
-      <c r="B328" s="104"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="4"/>
-      <c r="F328" s="2"/>
-      <c r="G328" s="53"/>
-    </row>
-    <row r="329" spans="1:7" ht="16.5">
+    <row r="327" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="13"/>
+      <c r="B327" s="108"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="6"/>
+      <c r="E327" s="6"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="56"/>
+    </row>
+    <row r="328" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B328" s="109"/>
+      <c r="D328" s="5"/>
+      <c r="E328" s="5"/>
+      <c r="F328" s="1"/>
+      <c r="G328" s="55"/>
+    </row>
+    <row r="329" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A329" s="11"/>
-      <c r="B329" s="104"/>
+      <c r="B329" s="107"/>
       <c r="C329" s="2"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="2"/>
       <c r="G329" s="53"/>
     </row>
-    <row r="330" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A330" s="13"/>
-      <c r="B330" s="105"/>
-      <c r="C330" s="3"/>
-      <c r="D330" s="6"/>
-      <c r="E330" s="6"/>
-      <c r="F330" s="3"/>
-      <c r="G330" s="56"/>
-    </row>
-    <row r="331" spans="1:7" ht="16.5">
-      <c r="B331" s="103"/>
-      <c r="D331" s="5"/>
-      <c r="E331" s="5"/>
-      <c r="F331" s="1"/>
-      <c r="G331" s="55"/>
-    </row>
-    <row r="332" spans="1:7" ht="16.5">
+    <row r="330" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B330" s="107"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="4"/>
+      <c r="E330" s="4"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="53"/>
+    </row>
+    <row r="331" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A331" s="11"/>
+      <c r="B331" s="107"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="53"/>
+    </row>
+    <row r="332" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A332" s="11"/>
-      <c r="B332" s="104"/>
+      <c r="B332" s="107"/>
       <c r="C332" s="2"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="2"/>
       <c r="G332" s="53"/>
     </row>
-    <row r="333" spans="1:7" ht="16.5">
-      <c r="B333" s="104"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="4"/>
-      <c r="F333" s="2"/>
-      <c r="G333" s="53"/>
-    </row>
-    <row r="334" spans="1:7" ht="16.5">
-      <c r="A334" s="11"/>
-      <c r="B334" s="104"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="4"/>
-      <c r="F334" s="2"/>
-      <c r="G334" s="53"/>
-    </row>
-    <row r="335" spans="1:7" ht="16.5">
+    <row r="333" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="13"/>
+      <c r="B333" s="108"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="6"/>
+      <c r="E333" s="6"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="56"/>
+    </row>
+    <row r="334" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B334" s="109"/>
+      <c r="D334" s="5"/>
+      <c r="E334" s="5"/>
+      <c r="F334" s="1"/>
+      <c r="G334" s="55"/>
+    </row>
+    <row r="335" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A335" s="11"/>
-      <c r="B335" s="104"/>
+      <c r="B335" s="107"/>
       <c r="C335" s="2"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="2"/>
       <c r="G335" s="53"/>
     </row>
-    <row r="336" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A336" s="13"/>
-      <c r="B336" s="105"/>
-      <c r="C336" s="3"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="3"/>
-      <c r="G336" s="56"/>
-    </row>
-    <row r="337" spans="1:7" ht="16.5">
-      <c r="B337" s="103"/>
-      <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
-      <c r="F337" s="1"/>
-      <c r="G337" s="55"/>
-    </row>
-    <row r="338" spans="1:7" ht="16.5">
+    <row r="336" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B336" s="107"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="53"/>
+    </row>
+    <row r="337" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A337" s="11"/>
+      <c r="B337" s="107"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="53"/>
+    </row>
+    <row r="338" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A338" s="11"/>
-      <c r="B338" s="104"/>
+      <c r="B338" s="107"/>
       <c r="C338" s="2"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="2"/>
       <c r="G338" s="53"/>
     </row>
-    <row r="339" spans="1:7" ht="16.5">
-      <c r="B339" s="104"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="4"/>
-      <c r="E339" s="4"/>
-      <c r="F339" s="2"/>
-      <c r="G339" s="53"/>
-    </row>
-    <row r="340" spans="1:7" ht="16.5">
-      <c r="A340" s="11"/>
-      <c r="B340" s="104"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="4"/>
-      <c r="E340" s="4"/>
-      <c r="F340" s="2"/>
-      <c r="G340" s="53"/>
-    </row>
-    <row r="341" spans="1:7" ht="16.5">
+    <row r="339" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="13"/>
+      <c r="B339" s="108"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="6"/>
+      <c r="E339" s="6"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="56"/>
+    </row>
+    <row r="340" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B340" s="109"/>
+      <c r="D340" s="5"/>
+      <c r="E340" s="5"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="55"/>
+    </row>
+    <row r="341" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A341" s="11"/>
-      <c r="B341" s="104"/>
+      <c r="B341" s="107"/>
       <c r="C341" s="2"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="2"/>
       <c r="G341" s="53"/>
     </row>
-    <row r="342" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A342" s="13"/>
-      <c r="B342" s="105"/>
-      <c r="C342" s="3"/>
-      <c r="D342" s="6"/>
-      <c r="E342" s="6"/>
-      <c r="F342" s="3"/>
-      <c r="G342" s="56"/>
-    </row>
-    <row r="343" spans="1:7" ht="16.5">
-      <c r="B343" s="103"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
-      <c r="F343" s="1"/>
-      <c r="G343" s="55"/>
-    </row>
-    <row r="344" spans="1:7" ht="16.5">
+    <row r="342" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B342" s="107"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="4"/>
+      <c r="E342" s="4"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="53"/>
+    </row>
+    <row r="343" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A343" s="11"/>
+      <c r="B343" s="107"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="4"/>
+      <c r="E343" s="4"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="53"/>
+    </row>
+    <row r="344" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A344" s="11"/>
-      <c r="B344" s="104"/>
+      <c r="B344" s="107"/>
       <c r="C344" s="2"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="2"/>
       <c r="G344" s="53"/>
     </row>
-    <row r="345" spans="1:7" ht="16.5">
-      <c r="B345" s="104"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="4"/>
-      <c r="E345" s="4"/>
-      <c r="F345" s="2"/>
-      <c r="G345" s="53"/>
-    </row>
-    <row r="346" spans="1:7" ht="16.5">
-      <c r="A346" s="11"/>
-      <c r="B346" s="104"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="4"/>
-      <c r="E346" s="4"/>
-      <c r="F346" s="2"/>
-      <c r="G346" s="53"/>
-    </row>
-    <row r="347" spans="1:7" ht="16.5">
+    <row r="345" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="13"/>
+      <c r="B345" s="108"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="6"/>
+      <c r="E345" s="6"/>
+      <c r="F345" s="3"/>
+      <c r="G345" s="56"/>
+    </row>
+    <row r="346" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B346" s="109"/>
+      <c r="D346" s="5"/>
+      <c r="E346" s="5"/>
+      <c r="F346" s="1"/>
+      <c r="G346" s="55"/>
+    </row>
+    <row r="347" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A347" s="11"/>
-      <c r="B347" s="104"/>
+      <c r="B347" s="107"/>
       <c r="C347" s="2"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="2"/>
       <c r="G347" s="53"/>
     </row>
-    <row r="348" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A348" s="13"/>
-      <c r="B348" s="105"/>
-      <c r="C348" s="3"/>
-      <c r="D348" s="6"/>
-      <c r="E348" s="6"/>
-      <c r="F348" s="3"/>
-      <c r="G348" s="56"/>
-    </row>
-    <row r="349" spans="1:7" ht="16.5">
-      <c r="B349" s="103"/>
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
-      <c r="F349" s="1"/>
-      <c r="G349" s="55"/>
-    </row>
-    <row r="350" spans="1:7" ht="16.5">
+    <row r="348" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B348" s="107"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="53"/>
+    </row>
+    <row r="349" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A349" s="11"/>
+      <c r="B349" s="107"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="53"/>
+    </row>
+    <row r="350" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A350" s="11"/>
-      <c r="B350" s="104"/>
+      <c r="B350" s="107"/>
       <c r="C350" s="2"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="2"/>
       <c r="G350" s="53"/>
     </row>
-    <row r="351" spans="1:7" ht="16.5">
-      <c r="B351" s="104"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="4"/>
-      <c r="E351" s="4"/>
-      <c r="F351" s="2"/>
-      <c r="G351" s="53"/>
-    </row>
-    <row r="352" spans="1:7" ht="16.5">
-      <c r="A352" s="11"/>
-      <c r="B352" s="104"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="4"/>
-      <c r="E352" s="4"/>
-      <c r="F352" s="2"/>
-      <c r="G352" s="53"/>
-    </row>
-    <row r="353" spans="1:7" ht="16.5">
+    <row r="351" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="13"/>
+      <c r="B351" s="108"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="6"/>
+      <c r="E351" s="6"/>
+      <c r="F351" s="3"/>
+      <c r="G351" s="56"/>
+    </row>
+    <row r="352" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B352" s="109"/>
+      <c r="D352" s="5"/>
+      <c r="E352" s="5"/>
+      <c r="F352" s="1"/>
+      <c r="G352" s="55"/>
+    </row>
+    <row r="353" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A353" s="11"/>
-      <c r="B353" s="104"/>
+      <c r="B353" s="107"/>
       <c r="C353" s="2"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="2"/>
       <c r="G353" s="53"/>
     </row>
-    <row r="354" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A354" s="13"/>
-      <c r="B354" s="105"/>
-      <c r="C354" s="3"/>
-      <c r="D354" s="6"/>
-      <c r="E354" s="6"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="56"/>
-    </row>
-    <row r="355" spans="1:7" ht="16.5">
-      <c r="B355" s="103"/>
-      <c r="D355" s="5"/>
-      <c r="E355" s="5"/>
-      <c r="F355" s="1"/>
-      <c r="G355" s="55"/>
-    </row>
-    <row r="356" spans="1:7" ht="16.5">
+    <row r="354" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B354" s="107"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="4"/>
+      <c r="E354" s="4"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="53"/>
+    </row>
+    <row r="355" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A355" s="11"/>
+      <c r="B355" s="107"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="4"/>
+      <c r="E355" s="4"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="53"/>
+    </row>
+    <row r="356" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A356" s="11"/>
-      <c r="B356" s="104"/>
+      <c r="B356" s="107"/>
       <c r="C356" s="2"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="2"/>
       <c r="G356" s="53"/>
     </row>
-    <row r="357" spans="1:7" ht="16.5">
-      <c r="B357" s="104"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="4"/>
-      <c r="E357" s="4"/>
-      <c r="F357" s="2"/>
-      <c r="G357" s="53"/>
-    </row>
-    <row r="358" spans="1:7" ht="16.5">
-      <c r="A358" s="11"/>
-      <c r="B358" s="104"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="4"/>
-      <c r="E358" s="4"/>
-      <c r="F358" s="2"/>
-      <c r="G358" s="53"/>
-    </row>
-    <row r="359" spans="1:7" ht="16.5">
+    <row r="357" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="13"/>
+      <c r="B357" s="108"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="6"/>
+      <c r="E357" s="6"/>
+      <c r="F357" s="3"/>
+      <c r="G357" s="56"/>
+    </row>
+    <row r="358" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B358" s="109"/>
+      <c r="D358" s="5"/>
+      <c r="E358" s="5"/>
+      <c r="F358" s="1"/>
+      <c r="G358" s="55"/>
+    </row>
+    <row r="359" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A359" s="11"/>
-      <c r="B359" s="104"/>
+      <c r="B359" s="107"/>
       <c r="C359" s="2"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="2"/>
       <c r="G359" s="53"/>
     </row>
-    <row r="360" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A360" s="13"/>
-      <c r="B360" s="105"/>
-      <c r="C360" s="3"/>
-      <c r="D360" s="6"/>
-      <c r="E360" s="6"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="56"/>
-    </row>
-    <row r="361" spans="1:7" ht="16.5">
-      <c r="B361" s="103"/>
-      <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
-      <c r="F361" s="1"/>
-      <c r="G361" s="55"/>
-    </row>
-    <row r="362" spans="1:7" ht="16.5">
+    <row r="360" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B360" s="107"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="4"/>
+      <c r="E360" s="4"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="53"/>
+    </row>
+    <row r="361" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A361" s="11"/>
+      <c r="B361" s="107"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="4"/>
+      <c r="E361" s="4"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="53"/>
+    </row>
+    <row r="362" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A362" s="11"/>
-      <c r="B362" s="104"/>
+      <c r="B362" s="107"/>
       <c r="C362" s="2"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="2"/>
       <c r="G362" s="53"/>
     </row>
-    <row r="363" spans="1:7" ht="16.5">
-      <c r="B363" s="104"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="4"/>
-      <c r="E363" s="4"/>
-      <c r="F363" s="2"/>
-      <c r="G363" s="53"/>
-    </row>
-    <row r="364" spans="1:7" ht="16.5">
-      <c r="A364" s="11"/>
-      <c r="B364" s="104"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="4"/>
-      <c r="E364" s="4"/>
-      <c r="F364" s="2"/>
-      <c r="G364" s="53"/>
-    </row>
-    <row r="365" spans="1:7" ht="16.5">
+    <row r="363" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="13"/>
+      <c r="B363" s="108"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="6"/>
+      <c r="E363" s="6"/>
+      <c r="F363" s="3"/>
+      <c r="G363" s="56"/>
+    </row>
+    <row r="364" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B364" s="109"/>
+      <c r="D364" s="5"/>
+      <c r="E364" s="5"/>
+      <c r="F364" s="1"/>
+      <c r="G364" s="55"/>
+    </row>
+    <row r="365" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A365" s="11"/>
-      <c r="B365" s="104"/>
+      <c r="B365" s="107"/>
       <c r="C365" s="2"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="2"/>
       <c r="G365" s="53"/>
     </row>
-    <row r="366" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A366" s="13"/>
-      <c r="B366" s="105"/>
-      <c r="C366" s="3"/>
-      <c r="D366" s="6"/>
-      <c r="E366" s="6"/>
-      <c r="F366" s="3"/>
-      <c r="G366" s="56"/>
-    </row>
-    <row r="367" spans="1:7" ht="16.5">
-      <c r="B367" s="103"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
-      <c r="F367" s="1"/>
-      <c r="G367" s="55"/>
-    </row>
-    <row r="368" spans="1:7" ht="16.5">
+    <row r="366" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B366" s="107"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="4"/>
+      <c r="E366" s="4"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="53"/>
+    </row>
+    <row r="367" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A367" s="11"/>
+      <c r="B367" s="107"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="4"/>
+      <c r="E367" s="4"/>
+      <c r="F367" s="2"/>
+      <c r="G367" s="53"/>
+    </row>
+    <row r="368" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A368" s="11"/>
-      <c r="B368" s="104"/>
+      <c r="B368" s="107"/>
       <c r="C368" s="2"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="2"/>
       <c r="G368" s="53"/>
     </row>
-    <row r="369" spans="1:7" ht="16.5">
-      <c r="B369" s="104"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="4"/>
-      <c r="E369" s="4"/>
-      <c r="F369" s="2"/>
-      <c r="G369" s="53"/>
-    </row>
-    <row r="370" spans="1:7" ht="16.5">
-      <c r="A370" s="11"/>
-      <c r="B370" s="104"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="4"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="53"/>
-    </row>
-    <row r="371" spans="1:7" ht="16.5">
+    <row r="369" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="13"/>
+      <c r="B369" s="108"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="6"/>
+      <c r="E369" s="6"/>
+      <c r="F369" s="3"/>
+      <c r="G369" s="56"/>
+    </row>
+    <row r="370" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B370" s="109"/>
+      <c r="D370" s="5"/>
+      <c r="E370" s="5"/>
+      <c r="F370" s="1"/>
+      <c r="G370" s="55"/>
+    </row>
+    <row r="371" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A371" s="11"/>
-      <c r="B371" s="104"/>
+      <c r="B371" s="107"/>
       <c r="C371" s="2"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="2"/>
       <c r="G371" s="53"/>
     </row>
-    <row r="372" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A372" s="13"/>
-      <c r="B372" s="105"/>
-      <c r="C372" s="3"/>
-      <c r="D372" s="6"/>
-      <c r="E372" s="6"/>
-      <c r="F372" s="3"/>
-      <c r="G372" s="56"/>
-    </row>
-    <row r="373" spans="1:7" ht="16.5">
-      <c r="B373" s="103"/>
-      <c r="D373" s="5"/>
-      <c r="E373" s="5"/>
-      <c r="F373" s="1"/>
-      <c r="G373" s="55"/>
-    </row>
-    <row r="374" spans="1:7" ht="16.5">
+    <row r="372" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B372" s="107"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="4"/>
+      <c r="E372" s="4"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="53"/>
+    </row>
+    <row r="373" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A373" s="11"/>
+      <c r="B373" s="107"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="4"/>
+      <c r="E373" s="4"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="53"/>
+    </row>
+    <row r="374" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A374" s="11"/>
-      <c r="B374" s="104"/>
+      <c r="B374" s="107"/>
       <c r="C374" s="2"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="2"/>
       <c r="G374" s="53"/>
     </row>
-    <row r="375" spans="1:7" ht="16.5">
-      <c r="B375" s="104"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="4"/>
-      <c r="F375" s="2"/>
-      <c r="G375" s="53"/>
-    </row>
-    <row r="376" spans="1:7" ht="16.5">
-      <c r="A376" s="11"/>
-      <c r="B376" s="104"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="4"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="53"/>
-    </row>
-    <row r="377" spans="1:7" ht="16.5">
+    <row r="375" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A375" s="13"/>
+      <c r="B375" s="108"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="6"/>
+      <c r="E375" s="6"/>
+      <c r="F375" s="3"/>
+      <c r="G375" s="56"/>
+    </row>
+    <row r="376" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B376" s="109"/>
+      <c r="D376" s="5"/>
+      <c r="E376" s="5"/>
+      <c r="F376" s="1"/>
+      <c r="G376" s="55"/>
+    </row>
+    <row r="377" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A377" s="11"/>
-      <c r="B377" s="104"/>
+      <c r="B377" s="107"/>
       <c r="C377" s="2"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="2"/>
       <c r="G377" s="53"/>
     </row>
-    <row r="378" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A378" s="13"/>
-      <c r="B378" s="105"/>
-      <c r="C378" s="3"/>
-      <c r="D378" s="6"/>
-      <c r="E378" s="6"/>
-      <c r="F378" s="3"/>
-      <c r="G378" s="56"/>
-    </row>
-    <row r="379" spans="1:7" ht="16.5">
-      <c r="B379" s="103"/>
-      <c r="D379" s="5"/>
-      <c r="E379" s="5"/>
-      <c r="F379" s="1"/>
-      <c r="G379" s="55"/>
-    </row>
-    <row r="380" spans="1:7" ht="16.5">
+    <row r="378" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B378" s="107"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="4"/>
+      <c r="E378" s="4"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="53"/>
+    </row>
+    <row r="379" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A379" s="11"/>
+      <c r="B379" s="107"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="4"/>
+      <c r="E379" s="4"/>
+      <c r="F379" s="2"/>
+      <c r="G379" s="53"/>
+    </row>
+    <row r="380" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A380" s="11"/>
-      <c r="B380" s="104"/>
+      <c r="B380" s="107"/>
       <c r="C380" s="2"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="2"/>
       <c r="G380" s="53"/>
     </row>
-    <row r="381" spans="1:7" ht="16.5">
-      <c r="B381" s="104"/>
-      <c r="C381" s="2"/>
-      <c r="D381" s="4"/>
-      <c r="E381" s="4"/>
-      <c r="F381" s="2"/>
-      <c r="G381" s="53"/>
-    </row>
-    <row r="382" spans="1:7" ht="16.5">
-      <c r="A382" s="11"/>
-      <c r="B382" s="104"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="4"/>
-      <c r="E382" s="4"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="53"/>
-    </row>
-    <row r="383" spans="1:7" ht="16.5">
+    <row r="381" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A381" s="13"/>
+      <c r="B381" s="108"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="6"/>
+      <c r="E381" s="6"/>
+      <c r="F381" s="3"/>
+      <c r="G381" s="56"/>
+    </row>
+    <row r="382" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B382" s="109"/>
+      <c r="D382" s="5"/>
+      <c r="E382" s="5"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="55"/>
+    </row>
+    <row r="383" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A383" s="11"/>
-      <c r="B383" s="104"/>
+      <c r="B383" s="107"/>
       <c r="C383" s="2"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="2"/>
       <c r="G383" s="53"/>
     </row>
-    <row r="384" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A384" s="13"/>
-      <c r="B384" s="105"/>
-      <c r="C384" s="3"/>
-      <c r="D384" s="6"/>
-      <c r="E384" s="6"/>
-      <c r="F384" s="3"/>
-      <c r="G384" s="56"/>
-    </row>
-    <row r="385" spans="1:7" ht="16.5">
-      <c r="B385" s="103"/>
-      <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
-      <c r="F385" s="1"/>
-      <c r="G385" s="55"/>
-    </row>
-    <row r="386" spans="1:7" ht="16.5">
+    <row r="384" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B384" s="107"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4"/>
+      <c r="F384" s="2"/>
+      <c r="G384" s="53"/>
+    </row>
+    <row r="385" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A385" s="11"/>
+      <c r="B385" s="107"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="4"/>
+      <c r="E385" s="4"/>
+      <c r="F385" s="2"/>
+      <c r="G385" s="53"/>
+    </row>
+    <row r="386" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A386" s="11"/>
-      <c r="B386" s="104"/>
+      <c r="B386" s="107"/>
       <c r="C386" s="2"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="2"/>
       <c r="G386" s="53"/>
     </row>
-    <row r="387" spans="1:7" ht="16.5">
-      <c r="B387" s="104"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="4"/>
-      <c r="F387" s="2"/>
-      <c r="G387" s="53"/>
-    </row>
-    <row r="388" spans="1:7" ht="16.5">
-      <c r="A388" s="11"/>
-      <c r="B388" s="104"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="4"/>
-      <c r="E388" s="4"/>
-      <c r="F388" s="2"/>
-      <c r="G388" s="53"/>
-    </row>
-    <row r="389" spans="1:7" ht="16.5">
+    <row r="387" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A387" s="13"/>
+      <c r="B387" s="108"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="6"/>
+      <c r="E387" s="6"/>
+      <c r="F387" s="3"/>
+      <c r="G387" s="56"/>
+    </row>
+    <row r="388" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B388" s="109"/>
+      <c r="D388" s="5"/>
+      <c r="E388" s="5"/>
+      <c r="F388" s="1"/>
+      <c r="G388" s="55"/>
+    </row>
+    <row r="389" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A389" s="11"/>
-      <c r="B389" s="104"/>
+      <c r="B389" s="107"/>
       <c r="C389" s="2"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="2"/>
       <c r="G389" s="53"/>
     </row>
-    <row r="390" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A390" s="13"/>
-      <c r="B390" s="105"/>
-      <c r="C390" s="3"/>
-      <c r="D390" s="6"/>
-      <c r="E390" s="6"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="56"/>
-    </row>
-    <row r="391" spans="1:7" ht="16.5">
-      <c r="B391" s="103"/>
-      <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
-      <c r="F391" s="1"/>
-      <c r="G391" s="55"/>
-    </row>
-    <row r="392" spans="1:7" ht="16.5">
+    <row r="390" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B390" s="107"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="4"/>
+      <c r="E390" s="4"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="53"/>
+    </row>
+    <row r="391" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A391" s="11"/>
+      <c r="B391" s="107"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="4"/>
+      <c r="E391" s="4"/>
+      <c r="F391" s="2"/>
+      <c r="G391" s="53"/>
+    </row>
+    <row r="392" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A392" s="11"/>
-      <c r="B392" s="104"/>
+      <c r="B392" s="107"/>
       <c r="C392" s="2"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="2"/>
       <c r="G392" s="53"/>
     </row>
-    <row r="393" spans="1:7" ht="16.5">
-      <c r="B393" s="104"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="4"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="53"/>
-    </row>
-    <row r="394" spans="1:7" ht="16.5">
-      <c r="A394" s="11"/>
-      <c r="B394" s="104"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="4"/>
-      <c r="E394" s="4"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="53"/>
-    </row>
-    <row r="395" spans="1:7" ht="16.5">
+    <row r="393" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A393" s="13"/>
+      <c r="B393" s="108"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
+      <c r="F393" s="3"/>
+      <c r="G393" s="56"/>
+    </row>
+    <row r="394" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B394" s="109"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="1"/>
+      <c r="G394" s="55"/>
+    </row>
+    <row r="395" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A395" s="11"/>
-      <c r="B395" s="104"/>
+      <c r="B395" s="107"/>
       <c r="C395" s="2"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="2"/>
       <c r="G395" s="53"/>
     </row>
-    <row r="396" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A396" s="13"/>
-      <c r="B396" s="105"/>
-      <c r="C396" s="3"/>
-      <c r="D396" s="6"/>
-      <c r="E396" s="6"/>
-      <c r="F396" s="3"/>
-      <c r="G396" s="56"/>
-    </row>
-    <row r="397" spans="1:7" ht="16.5">
-      <c r="B397" s="103"/>
-      <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
-      <c r="F397" s="1"/>
-      <c r="G397" s="55"/>
-    </row>
-    <row r="398" spans="1:7" ht="16.5">
+    <row r="396" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B396" s="107"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="4"/>
+      <c r="E396" s="4"/>
+      <c r="F396" s="2"/>
+      <c r="G396" s="53"/>
+    </row>
+    <row r="397" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A397" s="11"/>
+      <c r="B397" s="107"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="4"/>
+      <c r="E397" s="4"/>
+      <c r="F397" s="2"/>
+      <c r="G397" s="53"/>
+    </row>
+    <row r="398" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A398" s="11"/>
-      <c r="B398" s="104"/>
+      <c r="B398" s="107"/>
       <c r="C398" s="2"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="2"/>
       <c r="G398" s="53"/>
     </row>
-    <row r="399" spans="1:7" ht="16.5">
-      <c r="B399" s="104"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="4"/>
-      <c r="E399" s="4"/>
-      <c r="F399" s="2"/>
-      <c r="G399" s="53"/>
-    </row>
-    <row r="400" spans="1:7" ht="16.5">
-      <c r="A400" s="11"/>
-      <c r="B400" s="104"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="4"/>
-      <c r="E400" s="4"/>
-      <c r="F400" s="2"/>
-      <c r="G400" s="53"/>
-    </row>
-    <row r="401" spans="1:7" ht="16.5">
+    <row r="399" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A399" s="13"/>
+      <c r="B399" s="108"/>
+      <c r="C399" s="3"/>
+      <c r="D399" s="6"/>
+      <c r="E399" s="6"/>
+      <c r="F399" s="3"/>
+      <c r="G399" s="56"/>
+    </row>
+    <row r="400" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B400" s="109"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="1"/>
+      <c r="G400" s="55"/>
+    </row>
+    <row r="401" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A401" s="11"/>
-      <c r="B401" s="104"/>
+      <c r="B401" s="107"/>
       <c r="C401" s="2"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="2"/>
       <c r="G401" s="53"/>
     </row>
-    <row r="402" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A402" s="13"/>
-      <c r="B402" s="105"/>
-      <c r="C402" s="3"/>
-      <c r="D402" s="6"/>
-      <c r="E402" s="6"/>
-      <c r="F402" s="3"/>
-      <c r="G402" s="56"/>
+    <row r="402" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B402" s="107"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="4"/>
+      <c r="E402" s="4"/>
+      <c r="F402" s="2"/>
+      <c r="G402" s="53"/>
+    </row>
+    <row r="403" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A403" s="11"/>
+      <c r="B403" s="107"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="4"/>
+      <c r="E403" s="4"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="53"/>
+    </row>
+    <row r="404" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A404" s="11"/>
+      <c r="B404" s="107"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="4"/>
+      <c r="E404" s="4"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="53"/>
+    </row>
+    <row r="405" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A405" s="13"/>
+      <c r="B405" s="108"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="6"/>
+      <c r="E405" s="6"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="56"/>
+    </row>
+    <row r="406" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B406" s="109"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="1"/>
+      <c r="G406" s="55"/>
+    </row>
+    <row r="407" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A407" s="11"/>
+      <c r="B407" s="107"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="4"/>
+      <c r="E407" s="4"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="53"/>
+    </row>
+    <row r="408" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B408" s="107"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="4"/>
+      <c r="E408" s="4"/>
+      <c r="F408" s="2"/>
+      <c r="G408" s="53"/>
+    </row>
+    <row r="409" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A409" s="11"/>
+      <c r="B409" s="107"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="4"/>
+      <c r="E409" s="4"/>
+      <c r="F409" s="2"/>
+      <c r="G409" s="53"/>
+    </row>
+    <row r="410" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A410" s="11"/>
+      <c r="B410" s="107"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="4"/>
+      <c r="E410" s="4"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="53"/>
+    </row>
+    <row r="411" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A411" s="13"/>
+      <c r="B411" s="108"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="6"/>
+      <c r="E411" s="6"/>
+      <c r="F411" s="3"/>
+      <c r="G411" s="56"/>
+    </row>
+    <row r="412" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B412" s="109"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="1"/>
+      <c r="G412" s="55"/>
+    </row>
+    <row r="413" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A413" s="11"/>
+      <c r="B413" s="107"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="4"/>
+      <c r="E413" s="4"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="53"/>
+    </row>
+    <row r="414" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B414" s="107"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="4"/>
+      <c r="E414" s="4"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="53"/>
+    </row>
+    <row r="415" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A415" s="11"/>
+      <c r="B415" s="107"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="4"/>
+      <c r="E415" s="4"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="53"/>
+    </row>
+    <row r="416" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A416" s="11"/>
+      <c r="B416" s="107"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="4"/>
+      <c r="E416" s="4"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="53"/>
+    </row>
+    <row r="417" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="13"/>
+      <c r="B417" s="108"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+      <c r="F417" s="3"/>
+      <c r="G417" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A234:A243"/>
-    <mergeCell ref="B234:B243"/>
-    <mergeCell ref="B152:B157"/>
-    <mergeCell ref="B158:B165"/>
-    <mergeCell ref="B131:B136"/>
-    <mergeCell ref="B146:B151"/>
-    <mergeCell ref="B138:B145"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B253:B258"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B172:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B184:B191"/>
-    <mergeCell ref="B192:B201"/>
+    <mergeCell ref="B322:B327"/>
+    <mergeCell ref="B328:B333"/>
+    <mergeCell ref="B412:B417"/>
+    <mergeCell ref="B382:B387"/>
+    <mergeCell ref="B388:B393"/>
+    <mergeCell ref="B394:B399"/>
+    <mergeCell ref="B400:B405"/>
+    <mergeCell ref="B406:B411"/>
+    <mergeCell ref="B364:B369"/>
+    <mergeCell ref="B370:B375"/>
+    <mergeCell ref="B376:B381"/>
+    <mergeCell ref="B263:B271"/>
+    <mergeCell ref="B272:B284"/>
+    <mergeCell ref="B285:B290"/>
+    <mergeCell ref="B291:B297"/>
+    <mergeCell ref="B298:B303"/>
+    <mergeCell ref="B334:B339"/>
+    <mergeCell ref="B340:B345"/>
+    <mergeCell ref="B346:B351"/>
+    <mergeCell ref="B352:B357"/>
+    <mergeCell ref="B358:B363"/>
+    <mergeCell ref="B304:B309"/>
+    <mergeCell ref="B310:B315"/>
+    <mergeCell ref="B316:B321"/>
     <mergeCell ref="B51:B56"/>
     <mergeCell ref="B202:B214"/>
     <mergeCell ref="B215:B227"/>
@@ -7455,38 +8279,69 @@
     <mergeCell ref="B123:B130"/>
     <mergeCell ref="B96:B101"/>
     <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B349:B354"/>
-    <mergeCell ref="B355:B360"/>
-    <mergeCell ref="B361:B366"/>
-    <mergeCell ref="B259:B264"/>
-    <mergeCell ref="B265:B270"/>
-    <mergeCell ref="B271:B276"/>
-    <mergeCell ref="B277:B282"/>
-    <mergeCell ref="B283:B288"/>
-    <mergeCell ref="B319:B324"/>
-    <mergeCell ref="B325:B330"/>
-    <mergeCell ref="B331:B336"/>
-    <mergeCell ref="B337:B342"/>
-    <mergeCell ref="B343:B348"/>
-    <mergeCell ref="B289:B294"/>
-    <mergeCell ref="B295:B300"/>
-    <mergeCell ref="B301:B306"/>
-    <mergeCell ref="B307:B312"/>
-    <mergeCell ref="B313:B318"/>
-    <mergeCell ref="B397:B402"/>
-    <mergeCell ref="B367:B372"/>
-    <mergeCell ref="B373:B378"/>
-    <mergeCell ref="B379:B384"/>
-    <mergeCell ref="B385:B390"/>
-    <mergeCell ref="B391:B396"/>
+    <mergeCell ref="B253:B262"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B184:B191"/>
+    <mergeCell ref="B192:B201"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A234:A243"/>
+    <mergeCell ref="B234:B243"/>
+    <mergeCell ref="B152:B157"/>
+    <mergeCell ref="B158:B165"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="B146:B151"/>
+    <mergeCell ref="B138:B145"/>
   </mergeCells>
   <conditionalFormatting sqref="C244:C252">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"Absent"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C234:C243">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"Absent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263:C270">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"Absent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C263:C270">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Absent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253:C261">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"Absent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C272:C284">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Absent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285:C290">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Absent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291:C297">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Absent"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298:C303">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Absent"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7496,24 +8351,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
